--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6397933566692586</v>
+        <v>0.6397933566692018</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0815873904673694</v>
+        <v>0.08158739046758257</v>
       </c>
       <c r="E2">
         <v>1.690541039113569</v>
@@ -427,7 +427,7 @@
         <v>3.573056731587911</v>
       </c>
       <c r="G2">
-        <v>2.968247643665265</v>
+        <v>2.968247643665279</v>
       </c>
       <c r="H2">
         <v>0.5629856734599272</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.782357122721208</v>
+        <v>7.782357122721265</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5550372333708538</v>
+        <v>0.5550372333707401</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06467815265420995</v>
+        <v>0.06467815265409627</v>
       </c>
       <c r="E3">
-        <v>1.414703237007132</v>
+        <v>1.414703237007103</v>
       </c>
       <c r="F3">
         <v>2.987120605042406</v>
       </c>
       <c r="G3">
-        <v>2.475631762055315</v>
+        <v>2.475631762055301</v>
       </c>
       <c r="H3">
-        <v>0.517105699725704</v>
+        <v>0.5171056997256684</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5033803924998779</v>
+        <v>0.5033803924997926</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05551847746880867</v>
+        <v>0.05551847746890104</v>
       </c>
       <c r="E4">
-        <v>1.255582939588635</v>
+        <v>1.255582939588663</v>
       </c>
       <c r="F4">
-        <v>2.652420148124634</v>
+        <v>2.652420148124662</v>
       </c>
       <c r="G4">
-        <v>2.195063652188807</v>
+        <v>2.195063652188836</v>
       </c>
       <c r="H4">
-        <v>0.4906559436213556</v>
+        <v>0.4906559436213129</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.022436261274947</v>
+        <v>6.022436261275033</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.482401466443477</v>
+        <v>0.4824014664437897</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05203214935318101</v>
+        <v>0.0520321493532947</v>
       </c>
       <c r="E5">
-        <v>1.192764032775941</v>
+        <v>1.192764032775983</v>
       </c>
       <c r="F5">
-        <v>2.521132119298585</v>
+        <v>2.521132119298571</v>
       </c>
       <c r="G5">
-        <v>2.085187185512027</v>
+        <v>2.085187185512041</v>
       </c>
       <c r="H5">
-        <v>0.4802605180916899</v>
+        <v>0.480260518091697</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.757415407268212</v>
+        <v>5.75741540726824</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4789216067528912</v>
+        <v>0.4789216067525786</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05146658760607892</v>
+        <v>0.05146658760606471</v>
       </c>
       <c r="E6">
-        <v>1.182441429247717</v>
+        <v>1.182441429247746</v>
       </c>
       <c r="F6">
         <v>2.499609747174603</v>
       </c>
       <c r="G6">
-        <v>2.067184852963464</v>
+        <v>2.067184852963507</v>
       </c>
       <c r="H6">
-        <v>0.4785561937971181</v>
+        <v>0.4785561937971039</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.713590463644096</v>
+        <v>5.713590463644152</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05547053332919205</v>
+        <v>0.05547053332918495</v>
       </c>
       <c r="E7">
-        <v>1.254728185965277</v>
+        <v>1.254728185965305</v>
       </c>
       <c r="F7">
-        <v>2.650630285901457</v>
+        <v>2.650630285901428</v>
       </c>
       <c r="G7">
-        <v>2.193565001858872</v>
+        <v>2.193565001858857</v>
       </c>
       <c r="H7">
         <v>0.4905142563131122</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6104734875421514</v>
+        <v>0.6104734875416966</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07546177778633023</v>
+        <v>0.07546177778611707</v>
       </c>
       <c r="E8">
-        <v>1.5929288980048</v>
+        <v>1.592928898004828</v>
       </c>
       <c r="F8">
         <v>3.365015792260948</v>
@@ -658,13 +658,13 @@
         <v>2.793140419776833</v>
       </c>
       <c r="H8">
-        <v>0.5467766431703183</v>
+        <v>0.5467766431703822</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.398395204499053</v>
+        <v>7.398395204499025</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8254864358633824</v>
+        <v>0.8254864358628993</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1281777472793308</v>
+        <v>0.1281777472794658</v>
       </c>
       <c r="E9">
-        <v>2.372309666302328</v>
+        <v>2.372309666302272</v>
       </c>
       <c r="F9">
-        <v>5.037830205526348</v>
+        <v>5.037830205526319</v>
       </c>
       <c r="G9">
         <v>4.206747160532615</v>
       </c>
       <c r="H9">
-        <v>0.6735357009979097</v>
+        <v>0.673535700997931</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.30089253712495</v>
+        <v>10.30089253712501</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9887978970650124</v>
+        <v>0.9887978970652114</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1834172362271573</v>
+        <v>0.1834172362267878</v>
       </c>
       <c r="E10">
         <v>3.092897909681568</v>
       </c>
       <c r="F10">
-        <v>6.586230643706159</v>
+        <v>6.586230643706187</v>
       </c>
       <c r="G10">
-        <v>5.5254492888958</v>
+        <v>5.525449288895828</v>
       </c>
       <c r="H10">
         <v>0.7818310147710719</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.67748211434559</v>
+        <v>12.67748211434557</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.065172029870581</v>
+        <v>1.065172029870467</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2156816943321047</v>
+        <v>0.2156816943321189</v>
       </c>
       <c r="E11">
-        <v>3.486886542222038</v>
+        <v>3.486886542222067</v>
       </c>
       <c r="F11">
         <v>7.423401066348902</v>
       </c>
       <c r="G11">
-        <v>6.242138245369944</v>
+        <v>6.242138245369972</v>
       </c>
       <c r="H11">
         <v>0.8361726759080312</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.094518095240261</v>
+        <v>1.094518095240687</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2295029659880043</v>
+        <v>0.2295029659878054</v>
       </c>
       <c r="E12">
-        <v>3.65128183887866</v>
+        <v>3.651281838878631</v>
       </c>
       <c r="F12">
         <v>7.769507166310774</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.33440180429861</v>
+        <v>14.33440180429858</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.088176220533114</v>
+        <v>1.088176220533143</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2264409543332988</v>
+        <v>0.226440954333512</v>
       </c>
       <c r="E13">
-        <v>3.6150598594824</v>
+        <v>3.615059859482457</v>
       </c>
       <c r="F13">
-        <v>7.693434422344637</v>
+        <v>7.693434422344552</v>
       </c>
       <c r="G13">
-        <v>6.473845641079294</v>
+        <v>6.473845641079237</v>
       </c>
       <c r="H13">
         <v>0.8530319732680312</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.2315859384571</v>
+        <v>14.23158593845699</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.06757686404643</v>
+        <v>1.067576864046515</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2167817863165453</v>
+        <v>0.2167817863167443</v>
       </c>
       <c r="E14">
-        <v>3.500058290603093</v>
+        <v>3.500058290603008</v>
       </c>
       <c r="F14">
         <v>7.451209673839173</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.055019372650008</v>
+        <v>1.055019372649866</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2110983327619493</v>
+        <v>0.2110983327622478</v>
       </c>
       <c r="E15">
-        <v>3.431837884657043</v>
+        <v>3.431837884657057</v>
       </c>
       <c r="F15">
         <v>7.307042115589724</v>
       </c>
       <c r="G15">
-        <v>6.142374269061833</v>
+        <v>6.142374269061861</v>
       </c>
       <c r="H15">
-        <v>0.8288059381378901</v>
+        <v>0.8288059381379185</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.70170668153784</v>
+        <v>13.70170668153781</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9838578938671105</v>
+        <v>0.9838578938673095</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1814931637532453</v>
+        <v>0.1814931637532027</v>
       </c>
       <c r="E16">
         <v>3.068880857846835</v>
       </c>
       <c r="F16">
-        <v>6.534906054192533</v>
+        <v>6.534906054192561</v>
       </c>
       <c r="G16">
-        <v>5.481593780697466</v>
+        <v>5.481593780697494</v>
       </c>
       <c r="H16">
-        <v>0.7783997959891309</v>
+        <v>0.7783997959891735</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9408073926563816</v>
+        <v>0.940807392656609</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1654628936152562</v>
+        <v>0.1654628936150573</v>
       </c>
       <c r="E17">
-        <v>2.866122407199086</v>
+        <v>2.866122407199057</v>
       </c>
       <c r="F17">
         <v>6.100575301197722</v>
       </c>
       <c r="G17">
-        <v>5.110858924331524</v>
+        <v>5.110858924331552</v>
       </c>
       <c r="H17">
         <v>0.748915639288974</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.95941511790761</v>
+        <v>11.95941511790764</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9162320798251642</v>
+        <v>0.9162320798253916</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0.1568666025287655</v>
       </c>
       <c r="E18">
-        <v>2.755258389809725</v>
+        <v>2.755258389809754</v>
       </c>
       <c r="F18">
-        <v>5.862439155233574</v>
+        <v>5.862439155233545</v>
       </c>
       <c r="G18">
         <v>4.907890487730128</v>
       </c>
       <c r="H18">
-        <v>0.7324162332085606</v>
+        <v>0.7324162332085749</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9079403929621321</v>
+        <v>0.9079403929619048</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1540511640187532</v>
+        <v>0.1540511640189663</v>
       </c>
       <c r="E19">
-        <v>2.718594140099981</v>
+        <v>2.718594140100024</v>
       </c>
       <c r="F19">
-        <v>5.783603955532669</v>
+        <v>5.783603955532612</v>
       </c>
       <c r="G19">
-        <v>4.840744929298722</v>
+        <v>4.840744929298666</v>
       </c>
       <c r="H19">
         <v>0.7269030696440382</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.47776891296971</v>
+        <v>11.47776891296957</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9453702066443554</v>
+        <v>0.9453702066441281</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1671017514199065</v>
+        <v>0.1671017514197217</v>
       </c>
       <c r="E20">
-        <v>2.887081251631457</v>
+        <v>2.8870812516314</v>
       </c>
       <c r="F20">
-        <v>6.145548622132253</v>
+        <v>6.145548622132225</v>
       </c>
       <c r="G20">
-        <v>5.149214580074045</v>
+        <v>5.149214580074073</v>
       </c>
       <c r="H20">
-        <v>0.7520053788703507</v>
+        <v>0.7520053788703862</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.073614514384786</v>
+        <v>1.073614514384843</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2195686403421604</v>
+        <v>0.219568640342132</v>
       </c>
       <c r="E21">
-        <v>3.533356976079574</v>
+        <v>3.533356976079546</v>
       </c>
       <c r="F21">
-        <v>7.521452282950122</v>
+        <v>7.52145228295015</v>
       </c>
       <c r="G21">
-        <v>6.326243009750442</v>
+        <v>6.32624300975047</v>
       </c>
       <c r="H21">
-        <v>0.8423328123518274</v>
+        <v>0.8423328123518417</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.99733138366011</v>
+        <v>13.99733138366014</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.160029801568612</v>
+        <v>1.160029801568385</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2638909529908915</v>
+        <v>0.2638909529905362</v>
       </c>
       <c r="E22">
         <v>4.051318814896263</v>
       </c>
       <c r="F22">
-        <v>8.601711826884014</v>
+        <v>8.601711826884099</v>
       </c>
       <c r="G22">
-        <v>7.255105710049946</v>
+        <v>7.255105710050032</v>
       </c>
       <c r="H22">
         <v>0.9072564026447338</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>15.42820968492626</v>
+        <v>15.42820968492634</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.113606679869577</v>
+        <v>1.113606679869349</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2389855292094722</v>
+        <v>0.2389855292098133</v>
       </c>
       <c r="E23">
-        <v>3.762785633836174</v>
+        <v>3.762785633836202</v>
       </c>
       <c r="F23">
-        <v>8.002980224962869</v>
+        <v>8.002980224962926</v>
       </c>
       <c r="G23">
-        <v>6.739775770372518</v>
+        <v>6.739775770372603</v>
       </c>
       <c r="H23">
-        <v>0.8719462171746812</v>
+        <v>0.8719462171746954</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>14.64693221986312</v>
+        <v>14.64693221986323</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9433068217137475</v>
+        <v>0.9433068217136622</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1663589300290624</v>
+        <v>0.1663589300288493</v>
       </c>
       <c r="E24">
-        <v>2.877588345811645</v>
+        <v>2.877588345811617</v>
       </c>
       <c r="F24">
-        <v>6.12518079552936</v>
+        <v>6.125180795529417</v>
       </c>
       <c r="G24">
-        <v>5.131842869068151</v>
+        <v>5.13184286906818</v>
       </c>
       <c r="H24">
-        <v>0.7506071176035576</v>
+        <v>0.7506071176035363</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.99636559022235</v>
+        <v>11.99636559022233</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7666158670306515</v>
+        <v>0.7666158670307652</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1118167920649427</v>
+        <v>0.1118167920649498</v>
       </c>
       <c r="E25">
-        <v>2.143008510765355</v>
+        <v>2.143008510765341</v>
       </c>
       <c r="F25">
-        <v>4.543820533763153</v>
+        <v>4.543820533763181</v>
       </c>
       <c r="G25">
-        <v>3.788010204892885</v>
+        <v>3.788010204892856</v>
       </c>
       <c r="H25">
-        <v>0.6370379968781563</v>
+        <v>0.6370379968781208</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6397933566692018</v>
+        <v>0.6397933566692586</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08158739046758257</v>
+        <v>0.0815873904673694</v>
       </c>
       <c r="E2">
         <v>1.690541039113569</v>
@@ -427,7 +427,7 @@
         <v>3.573056731587911</v>
       </c>
       <c r="G2">
-        <v>2.968247643665279</v>
+        <v>2.968247643665265</v>
       </c>
       <c r="H2">
         <v>0.5629856734599272</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.782357122721265</v>
+        <v>7.782357122721208</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5550372333707401</v>
+        <v>0.5550372333708538</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06467815265409627</v>
+        <v>0.06467815265420995</v>
       </c>
       <c r="E3">
-        <v>1.414703237007103</v>
+        <v>1.414703237007132</v>
       </c>
       <c r="F3">
         <v>2.987120605042406</v>
       </c>
       <c r="G3">
-        <v>2.475631762055301</v>
+        <v>2.475631762055315</v>
       </c>
       <c r="H3">
-        <v>0.5171056997256684</v>
+        <v>0.517105699725704</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5033803924997926</v>
+        <v>0.5033803924998779</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05551847746890104</v>
+        <v>0.05551847746880867</v>
       </c>
       <c r="E4">
-        <v>1.255582939588663</v>
+        <v>1.255582939588635</v>
       </c>
       <c r="F4">
-        <v>2.652420148124662</v>
+        <v>2.652420148124634</v>
       </c>
       <c r="G4">
-        <v>2.195063652188836</v>
+        <v>2.195063652188807</v>
       </c>
       <c r="H4">
-        <v>0.4906559436213129</v>
+        <v>0.4906559436213556</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.022436261275033</v>
+        <v>6.022436261274947</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4824014664437897</v>
+        <v>0.482401466443477</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0520321493532947</v>
+        <v>0.05203214935318101</v>
       </c>
       <c r="E5">
-        <v>1.192764032775983</v>
+        <v>1.192764032775941</v>
       </c>
       <c r="F5">
-        <v>2.521132119298571</v>
+        <v>2.521132119298585</v>
       </c>
       <c r="G5">
-        <v>2.085187185512041</v>
+        <v>2.085187185512027</v>
       </c>
       <c r="H5">
-        <v>0.480260518091697</v>
+        <v>0.4802605180916899</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.75741540726824</v>
+        <v>5.757415407268212</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4789216067525786</v>
+        <v>0.4789216067528912</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05146658760606471</v>
+        <v>0.05146658760607892</v>
       </c>
       <c r="E6">
-        <v>1.182441429247746</v>
+        <v>1.182441429247717</v>
       </c>
       <c r="F6">
         <v>2.499609747174603</v>
       </c>
       <c r="G6">
-        <v>2.067184852963507</v>
+        <v>2.067184852963464</v>
       </c>
       <c r="H6">
-        <v>0.4785561937971039</v>
+        <v>0.4785561937971181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.713590463644152</v>
+        <v>5.713590463644096</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05547053332918495</v>
+        <v>0.05547053332919205</v>
       </c>
       <c r="E7">
-        <v>1.254728185965305</v>
+        <v>1.254728185965277</v>
       </c>
       <c r="F7">
-        <v>2.650630285901428</v>
+        <v>2.650630285901457</v>
       </c>
       <c r="G7">
-        <v>2.193565001858857</v>
+        <v>2.193565001858872</v>
       </c>
       <c r="H7">
         <v>0.4905142563131122</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6104734875416966</v>
+        <v>0.6104734875421514</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07546177778611707</v>
+        <v>0.07546177778633023</v>
       </c>
       <c r="E8">
-        <v>1.592928898004828</v>
+        <v>1.5929288980048</v>
       </c>
       <c r="F8">
         <v>3.365015792260948</v>
@@ -658,13 +658,13 @@
         <v>2.793140419776833</v>
       </c>
       <c r="H8">
-        <v>0.5467766431703822</v>
+        <v>0.5467766431703183</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.398395204499025</v>
+        <v>7.398395204499053</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8254864358628993</v>
+        <v>0.8254864358633824</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1281777472794658</v>
+        <v>0.1281777472793308</v>
       </c>
       <c r="E9">
-        <v>2.372309666302272</v>
+        <v>2.372309666302328</v>
       </c>
       <c r="F9">
-        <v>5.037830205526319</v>
+        <v>5.037830205526348</v>
       </c>
       <c r="G9">
         <v>4.206747160532615</v>
       </c>
       <c r="H9">
-        <v>0.673535700997931</v>
+        <v>0.6735357009979097</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.30089253712501</v>
+        <v>10.30089253712495</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9887978970652114</v>
+        <v>0.9887978970650124</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1834172362267878</v>
+        <v>0.1834172362271573</v>
       </c>
       <c r="E10">
         <v>3.092897909681568</v>
       </c>
       <c r="F10">
-        <v>6.586230643706187</v>
+        <v>6.586230643706159</v>
       </c>
       <c r="G10">
-        <v>5.525449288895828</v>
+        <v>5.5254492888958</v>
       </c>
       <c r="H10">
         <v>0.7818310147710719</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.67748211434557</v>
+        <v>12.67748211434559</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.065172029870467</v>
+        <v>1.065172029870581</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2156816943321189</v>
+        <v>0.2156816943321047</v>
       </c>
       <c r="E11">
-        <v>3.486886542222067</v>
+        <v>3.486886542222038</v>
       </c>
       <c r="F11">
         <v>7.423401066348902</v>
       </c>
       <c r="G11">
-        <v>6.242138245369972</v>
+        <v>6.242138245369944</v>
       </c>
       <c r="H11">
         <v>0.8361726759080312</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.094518095240687</v>
+        <v>1.094518095240261</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2295029659878054</v>
+        <v>0.2295029659880043</v>
       </c>
       <c r="E12">
-        <v>3.651281838878631</v>
+        <v>3.65128183887866</v>
       </c>
       <c r="F12">
         <v>7.769507166310774</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.33440180429858</v>
+        <v>14.33440180429861</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.088176220533143</v>
+        <v>1.088176220533114</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.226440954333512</v>
+        <v>0.2264409543332988</v>
       </c>
       <c r="E13">
-        <v>3.615059859482457</v>
+        <v>3.6150598594824</v>
       </c>
       <c r="F13">
-        <v>7.693434422344552</v>
+        <v>7.693434422344637</v>
       </c>
       <c r="G13">
-        <v>6.473845641079237</v>
+        <v>6.473845641079294</v>
       </c>
       <c r="H13">
         <v>0.8530319732680312</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.23158593845699</v>
+        <v>14.2315859384571</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.067576864046515</v>
+        <v>1.06757686404643</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2167817863167443</v>
+        <v>0.2167817863165453</v>
       </c>
       <c r="E14">
-        <v>3.500058290603008</v>
+        <v>3.500058290603093</v>
       </c>
       <c r="F14">
         <v>7.451209673839173</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.055019372649866</v>
+        <v>1.055019372650008</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2110983327622478</v>
+        <v>0.2110983327619493</v>
       </c>
       <c r="E15">
-        <v>3.431837884657057</v>
+        <v>3.431837884657043</v>
       </c>
       <c r="F15">
         <v>7.307042115589724</v>
       </c>
       <c r="G15">
-        <v>6.142374269061861</v>
+        <v>6.142374269061833</v>
       </c>
       <c r="H15">
-        <v>0.8288059381379185</v>
+        <v>0.8288059381378901</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.70170668153781</v>
+        <v>13.70170668153784</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9838578938673095</v>
+        <v>0.9838578938671105</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1814931637532027</v>
+        <v>0.1814931637532453</v>
       </c>
       <c r="E16">
         <v>3.068880857846835</v>
       </c>
       <c r="F16">
-        <v>6.534906054192561</v>
+        <v>6.534906054192533</v>
       </c>
       <c r="G16">
-        <v>5.481593780697494</v>
+        <v>5.481593780697466</v>
       </c>
       <c r="H16">
-        <v>0.7783997959891735</v>
+        <v>0.7783997959891309</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.940807392656609</v>
+        <v>0.9408073926563816</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1654628936150573</v>
+        <v>0.1654628936152562</v>
       </c>
       <c r="E17">
-        <v>2.866122407199057</v>
+        <v>2.866122407199086</v>
       </c>
       <c r="F17">
         <v>6.100575301197722</v>
       </c>
       <c r="G17">
-        <v>5.110858924331552</v>
+        <v>5.110858924331524</v>
       </c>
       <c r="H17">
         <v>0.748915639288974</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.95941511790764</v>
+        <v>11.95941511790761</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9162320798253916</v>
+        <v>0.9162320798251642</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0.1568666025287655</v>
       </c>
       <c r="E18">
-        <v>2.755258389809754</v>
+        <v>2.755258389809725</v>
       </c>
       <c r="F18">
-        <v>5.862439155233545</v>
+        <v>5.862439155233574</v>
       </c>
       <c r="G18">
         <v>4.907890487730128</v>
       </c>
       <c r="H18">
-        <v>0.7324162332085749</v>
+        <v>0.7324162332085606</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9079403929619048</v>
+        <v>0.9079403929621321</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1540511640189663</v>
+        <v>0.1540511640187532</v>
       </c>
       <c r="E19">
-        <v>2.718594140100024</v>
+        <v>2.718594140099981</v>
       </c>
       <c r="F19">
-        <v>5.783603955532612</v>
+        <v>5.783603955532669</v>
       </c>
       <c r="G19">
-        <v>4.840744929298666</v>
+        <v>4.840744929298722</v>
       </c>
       <c r="H19">
         <v>0.7269030696440382</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.47776891296957</v>
+        <v>11.47776891296971</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9453702066441281</v>
+        <v>0.9453702066443554</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1671017514197217</v>
+        <v>0.1671017514199065</v>
       </c>
       <c r="E20">
-        <v>2.8870812516314</v>
+        <v>2.887081251631457</v>
       </c>
       <c r="F20">
-        <v>6.145548622132225</v>
+        <v>6.145548622132253</v>
       </c>
       <c r="G20">
-        <v>5.149214580074073</v>
+        <v>5.149214580074045</v>
       </c>
       <c r="H20">
-        <v>0.7520053788703862</v>
+        <v>0.7520053788703507</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.073614514384843</v>
+        <v>1.073614514384786</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.219568640342132</v>
+        <v>0.2195686403421604</v>
       </c>
       <c r="E21">
-        <v>3.533356976079546</v>
+        <v>3.533356976079574</v>
       </c>
       <c r="F21">
-        <v>7.52145228295015</v>
+        <v>7.521452282950122</v>
       </c>
       <c r="G21">
-        <v>6.32624300975047</v>
+        <v>6.326243009750442</v>
       </c>
       <c r="H21">
-        <v>0.8423328123518417</v>
+        <v>0.8423328123518274</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.99733138366014</v>
+        <v>13.99733138366011</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.160029801568385</v>
+        <v>1.160029801568612</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2638909529905362</v>
+        <v>0.2638909529908915</v>
       </c>
       <c r="E22">
         <v>4.051318814896263</v>
       </c>
       <c r="F22">
-        <v>8.601711826884099</v>
+        <v>8.601711826884014</v>
       </c>
       <c r="G22">
-        <v>7.255105710050032</v>
+        <v>7.255105710049946</v>
       </c>
       <c r="H22">
         <v>0.9072564026447338</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>15.42820968492634</v>
+        <v>15.42820968492626</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.113606679869349</v>
+        <v>1.113606679869577</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2389855292098133</v>
+        <v>0.2389855292094722</v>
       </c>
       <c r="E23">
-        <v>3.762785633836202</v>
+        <v>3.762785633836174</v>
       </c>
       <c r="F23">
-        <v>8.002980224962926</v>
+        <v>8.002980224962869</v>
       </c>
       <c r="G23">
-        <v>6.739775770372603</v>
+        <v>6.739775770372518</v>
       </c>
       <c r="H23">
-        <v>0.8719462171746954</v>
+        <v>0.8719462171746812</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>14.64693221986323</v>
+        <v>14.64693221986312</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9433068217136622</v>
+        <v>0.9433068217137475</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1663589300288493</v>
+        <v>0.1663589300290624</v>
       </c>
       <c r="E24">
-        <v>2.877588345811617</v>
+        <v>2.877588345811645</v>
       </c>
       <c r="F24">
-        <v>6.125180795529417</v>
+        <v>6.12518079552936</v>
       </c>
       <c r="G24">
-        <v>5.13184286906818</v>
+        <v>5.131842869068151</v>
       </c>
       <c r="H24">
-        <v>0.7506071176035363</v>
+        <v>0.7506071176035576</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.99636559022233</v>
+        <v>11.99636559022235</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7666158670307652</v>
+        <v>0.7666158670306515</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1118167920649498</v>
+        <v>0.1118167920649427</v>
       </c>
       <c r="E25">
-        <v>2.143008510765341</v>
+        <v>2.143008510765355</v>
       </c>
       <c r="F25">
-        <v>4.543820533763181</v>
+        <v>4.543820533763153</v>
       </c>
       <c r="G25">
-        <v>3.788010204892856</v>
+        <v>3.788010204892885</v>
       </c>
       <c r="H25">
-        <v>0.6370379968781208</v>
+        <v>0.6370379968781563</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6397933566692586</v>
+        <v>0.640203357156139</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0815873904673694</v>
+        <v>0.08118956818234579</v>
       </c>
       <c r="E2">
-        <v>1.690541039113569</v>
+        <v>1.690075193477739</v>
       </c>
       <c r="F2">
-        <v>3.573056731587911</v>
+        <v>3.566099567933776</v>
       </c>
       <c r="G2">
-        <v>2.968247643665265</v>
+        <v>1.012226498537473</v>
       </c>
       <c r="H2">
-        <v>0.5629856734599272</v>
+        <v>1.951555674819787</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.563944297852558</v>
       </c>
       <c r="J2">
-        <v>7.782357122721208</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7.776569202002008</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5550372333708538</v>
+        <v>0.5553980528241027</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06467815265420995</v>
+        <v>0.06435958481419135</v>
       </c>
       <c r="E3">
-        <v>1.414703237007132</v>
+        <v>1.414391598957906</v>
       </c>
       <c r="F3">
-        <v>2.987120605042406</v>
+        <v>2.981472316346611</v>
       </c>
       <c r="G3">
-        <v>2.475631762055315</v>
+        <v>0.8421084731869968</v>
       </c>
       <c r="H3">
-        <v>0.517105699725704</v>
+        <v>1.630709065502515</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5179392929629358</v>
       </c>
       <c r="J3">
-        <v>6.681156720714654</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.676458207061046</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5033803924998779</v>
+        <v>0.5037104767321807</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05551847746880867</v>
+        <v>0.05524287551892115</v>
       </c>
       <c r="E4">
-        <v>1.255582939588635</v>
+        <v>1.255344405522479</v>
       </c>
       <c r="F4">
-        <v>2.652420148124634</v>
+        <v>2.647489124876756</v>
       </c>
       <c r="G4">
-        <v>2.195063652188807</v>
+        <v>0.7449581727499179</v>
       </c>
       <c r="H4">
-        <v>0.4906559436213556</v>
+        <v>1.448209899165633</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4914119924884091</v>
       </c>
       <c r="J4">
-        <v>6.022436261274947</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.018339072932719</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.482401466443477</v>
+        <v>0.4827189177461975</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05203214935318101</v>
+        <v>0.05177295362697265</v>
       </c>
       <c r="E5">
-        <v>1.192764032775941</v>
+        <v>1.192551386969782</v>
       </c>
       <c r="F5">
-        <v>2.521132119298585</v>
+        <v>2.516476757850498</v>
       </c>
       <c r="G5">
-        <v>2.085187185512027</v>
+        <v>0.7068506717420888</v>
       </c>
       <c r="H5">
-        <v>0.4802605180916899</v>
+        <v>1.376796814083193</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4809848040000944</v>
       </c>
       <c r="J5">
-        <v>5.757415407268212</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5.75355036961173</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4789216067528912</v>
+        <v>0.4792369544641701</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05146658760607892</v>
+        <v>0.05121005748338803</v>
       </c>
       <c r="E6">
-        <v>1.182441429247717</v>
+        <v>1.182232881535029</v>
       </c>
       <c r="F6">
-        <v>2.499609747174603</v>
+        <v>2.494999277586615</v>
       </c>
       <c r="G6">
-        <v>2.067184852963464</v>
+        <v>0.7006034668320353</v>
       </c>
       <c r="H6">
-        <v>0.4785561937971181</v>
+        <v>1.365099797511917</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.479275196327464</v>
       </c>
       <c r="J6">
-        <v>5.713590463644096</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.709763294564624</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5030972032291174</v>
+        <v>0.5034271174978073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05547053332919205</v>
+        <v>0.05519515673391595</v>
       </c>
       <c r="E7">
-        <v>1.254728185965277</v>
+        <v>1.254490015196637</v>
       </c>
       <c r="F7">
-        <v>2.650630285901457</v>
+        <v>2.645703041948053</v>
       </c>
       <c r="G7">
-        <v>2.193565001858872</v>
+        <v>0.7444386561213179</v>
       </c>
       <c r="H7">
-        <v>0.4905142563131122</v>
+        <v>1.447235633612422</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4912698774415318</v>
       </c>
       <c r="J7">
-        <v>6.018849412208965</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.014755402342502</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6104734875421514</v>
+        <v>0.6108666617332119</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07546177778633023</v>
+        <v>0.07509269591837864</v>
       </c>
       <c r="E8">
-        <v>1.5929288980048</v>
+        <v>1.592521809509194</v>
       </c>
       <c r="F8">
-        <v>3.365015792260948</v>
+        <v>3.358531433019891</v>
       </c>
       <c r="G8">
-        <v>2.793140419776833</v>
+        <v>0.9518151576131402</v>
       </c>
       <c r="H8">
-        <v>0.5467766431703183</v>
+        <v>1.837452720969125</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5476923417123061</v>
       </c>
       <c r="J8">
-        <v>7.398395204499053</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.39299981022242</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8254864358633824</v>
+        <v>0.8259973632953574</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1281777472793308</v>
+        <v>0.1275570765233311</v>
       </c>
       <c r="E9">
-        <v>2.372309666302328</v>
+        <v>2.371283872952247</v>
       </c>
       <c r="F9">
-        <v>5.037830205526348</v>
+        <v>5.027256442188502</v>
       </c>
       <c r="G9">
-        <v>4.206747160532615</v>
+        <v>1.438044305399501</v>
       </c>
       <c r="H9">
-        <v>0.6735357009979097</v>
+        <v>2.759819123387786</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6747565046757771</v>
       </c>
       <c r="J9">
-        <v>10.30089253712495</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.29212751508646</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9887978970650124</v>
+        <v>0.989385935118321</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1834172362271573</v>
+        <v>0.1825133697154371</v>
       </c>
       <c r="E10">
-        <v>3.092897909681568</v>
+        <v>3.090907433460345</v>
       </c>
       <c r="F10">
-        <v>6.586230643706159</v>
+        <v>6.571137480743886</v>
       </c>
       <c r="G10">
-        <v>5.5254492888958</v>
+        <v>1.889338527968903</v>
       </c>
       <c r="H10">
-        <v>0.7818310147710719</v>
+        <v>3.621952234987532</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7832625973278482</v>
       </c>
       <c r="J10">
-        <v>12.67748211434559</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.6650347101621</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.065172029870581</v>
+        <v>1.065789954638603</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2156816943321047</v>
+        <v>0.2145974424975066</v>
       </c>
       <c r="E11">
-        <v>3.486886542222038</v>
+        <v>3.484141097527939</v>
       </c>
       <c r="F11">
-        <v>7.423401066348902</v>
+        <v>7.405455651857068</v>
       </c>
       <c r="G11">
-        <v>6.242138245369944</v>
+        <v>2.133904076623082</v>
       </c>
       <c r="H11">
-        <v>0.8361726759080312</v>
+        <v>4.090863776050469</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8376923778550065</v>
       </c>
       <c r="J11">
-        <v>13.8626380479169</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.84787909977206</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.094518095240261</v>
+        <v>1.095145946314176</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2295029659880043</v>
+        <v>0.2283370079574354</v>
       </c>
       <c r="E12">
-        <v>3.65128183887866</v>
+        <v>3.648159806251016</v>
       </c>
       <c r="F12">
-        <v>7.769507166310774</v>
+        <v>7.750274811532506</v>
       </c>
       <c r="G12">
-        <v>6.539168113262974</v>
+        <v>2.235133169766982</v>
       </c>
       <c r="H12">
-        <v>0.8577212955342048</v>
+        <v>4.285241268303338</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8592722236016641</v>
       </c>
       <c r="J12">
-        <v>14.33440180429861</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.31860204621825</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.088176220533114</v>
+        <v>1.088802013616714</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2264409543332988</v>
+        <v>0.2252933539712956</v>
       </c>
       <c r="E13">
-        <v>3.6150598594824</v>
+        <v>3.612024283418393</v>
       </c>
       <c r="F13">
-        <v>7.693434422344637</v>
+        <v>7.67449097167605</v>
       </c>
       <c r="G13">
-        <v>6.473845641079294</v>
+        <v>2.212877375917458</v>
       </c>
       <c r="H13">
-        <v>0.8530319732680312</v>
+        <v>4.242492779198045</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8545763003873361</v>
       </c>
       <c r="J13">
-        <v>14.2315859384571</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.216019731133</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.06757686404643</v>
+        <v>1.068195639457599</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2167817863165453</v>
+        <v>0.2156911372574939</v>
       </c>
       <c r="E14">
-        <v>3.500058290603093</v>
+        <v>3.49728412867286</v>
       </c>
       <c r="F14">
-        <v>7.451209673839173</v>
+        <v>7.433163394280399</v>
       </c>
       <c r="G14">
-        <v>6.26598797638971</v>
+        <v>2.142034934238126</v>
       </c>
       <c r="H14">
-        <v>0.8379241991380724</v>
+        <v>4.106470542322512</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8394465228535779</v>
       </c>
       <c r="J14">
-        <v>13.90092361954802</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.88608305410955</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.055019372650008</v>
+        <v>1.055633638228443</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2110983327619493</v>
+        <v>0.2100405458231904</v>
       </c>
       <c r="E15">
-        <v>3.431837884657043</v>
+        <v>3.42920984327867</v>
       </c>
       <c r="F15">
-        <v>7.307042115589724</v>
+        <v>7.289514168316714</v>
       </c>
       <c r="G15">
-        <v>6.142374269061833</v>
+        <v>2.099887231859924</v>
       </c>
       <c r="H15">
-        <v>0.8288059381378901</v>
+        <v>4.025581673317021</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8303144566955325</v>
       </c>
       <c r="J15">
-        <v>13.70170668153784</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.68728561965861</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9838578938671105</v>
+        <v>0.9844438318841071</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1814931637532453</v>
+        <v>0.1805996519673272</v>
       </c>
       <c r="E16">
-        <v>3.068880857846835</v>
+        <v>3.066930462204851</v>
       </c>
       <c r="F16">
-        <v>6.534906054192533</v>
+        <v>6.519977143706626</v>
       </c>
       <c r="G16">
-        <v>5.481593780697466</v>
+        <v>1.874358119969628</v>
       </c>
       <c r="H16">
-        <v>0.7783997959891309</v>
+        <v>3.593264669660755</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7798253964434352</v>
       </c>
       <c r="J16">
-        <v>12.60269565024007</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.59038159993338</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9408073926563816</v>
+        <v>0.9413743213556245</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1654628936152562</v>
+        <v>0.1646541204321323</v>
       </c>
       <c r="E17">
-        <v>2.866122407199086</v>
+        <v>2.864486472204135</v>
       </c>
       <c r="F17">
-        <v>6.100575301197722</v>
+        <v>6.086993043028627</v>
       </c>
       <c r="G17">
-        <v>5.110858924331524</v>
+        <v>1.747647622902349</v>
       </c>
       <c r="H17">
-        <v>0.748915639288974</v>
+        <v>3.350789144887216</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7502879088227417</v>
       </c>
       <c r="J17">
-        <v>11.95941511790761</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.94819556823609</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9162320798251642</v>
+        <v>0.916787641694583</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1568666025287655</v>
+        <v>0.1561022274892068</v>
       </c>
       <c r="E18">
-        <v>2.755258389809725</v>
+        <v>2.753777489571732</v>
       </c>
       <c r="F18">
-        <v>5.862439155233574</v>
+        <v>5.84956439252619</v>
       </c>
       <c r="G18">
-        <v>4.907890487730128</v>
+        <v>1.6782195043277</v>
       </c>
       <c r="H18">
-        <v>0.7324162332085606</v>
+        <v>3.218070899203497</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7337571861380496</v>
       </c>
       <c r="J18">
-        <v>11.59855227315805</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.58790867121181</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9079403929621321</v>
+        <v>0.9084920433389527</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1540511640187532</v>
+        <v>0.1533011844629257</v>
       </c>
       <c r="E19">
-        <v>2.718594140099981</v>
+        <v>2.717162058526824</v>
       </c>
       <c r="F19">
-        <v>5.783603955532669</v>
+        <v>5.7709589011491</v>
       </c>
       <c r="G19">
-        <v>4.840744929298722</v>
+        <v>1.655242184499002</v>
       </c>
       <c r="H19">
-        <v>0.7269030696440382</v>
+        <v>3.174170852835118</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.728233327076758</v>
       </c>
       <c r="J19">
-        <v>11.47776891296971</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.46731246052903</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9453702066443554</v>
+        <v>0.9459392066960959</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1671017514199065</v>
+        <v>0.1662844346980847</v>
       </c>
       <c r="E20">
-        <v>2.887081251631457</v>
+        <v>2.885414712254672</v>
       </c>
       <c r="F20">
-        <v>6.145548622132253</v>
+        <v>6.131830380107232</v>
       </c>
       <c r="G20">
-        <v>5.149214580074045</v>
+        <v>1.760763062540747</v>
       </c>
       <c r="H20">
-        <v>0.7520053788703507</v>
+        <v>3.375872027011781</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7533833966515928</v>
       </c>
       <c r="J20">
-        <v>12.02690533993965</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.01557516751768</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.073614514384786</v>
+        <v>1.074235397329289</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2195686403421604</v>
+        <v>0.2184617052518689</v>
       </c>
       <c r="E21">
-        <v>3.533356976079574</v>
+        <v>3.530509114330826</v>
       </c>
       <c r="F21">
-        <v>7.521452282950122</v>
+        <v>7.503149302640423</v>
       </c>
       <c r="G21">
-        <v>6.326243009750442</v>
+        <v>2.162574939144577</v>
       </c>
       <c r="H21">
-        <v>0.8423328123518274</v>
+        <v>4.145900691766315</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8438616708398143</v>
       </c>
       <c r="J21">
-        <v>13.99733138366011</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.98228313704038</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.160029801568612</v>
+        <v>1.160675475548004</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2638909529908915</v>
+        <v>0.2625074369575344</v>
       </c>
       <c r="E22">
-        <v>4.051318814896263</v>
+        <v>4.047092800150679</v>
       </c>
       <c r="F22">
-        <v>8.601711826884014</v>
+        <v>8.579065402845117</v>
       </c>
       <c r="G22">
-        <v>7.255105710049946</v>
+        <v>2.478824141502315</v>
       </c>
       <c r="H22">
-        <v>0.9072564026447338</v>
+        <v>4.753781764245332</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9088697217127617</v>
       </c>
       <c r="J22">
-        <v>15.42820968492626</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.40965362325622</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.113606679869577</v>
+        <v>1.114240406169444</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2389855292094722</v>
+        <v>0.2377617370592588</v>
       </c>
       <c r="E23">
-        <v>3.762785633836174</v>
+        <v>3.759384316493296</v>
       </c>
       <c r="F23">
-        <v>8.002980224962869</v>
+        <v>7.982838584908592</v>
       </c>
       <c r="G23">
-        <v>6.739775770372518</v>
+        <v>2.303459153807324</v>
       </c>
       <c r="H23">
-        <v>0.8719462171746812</v>
+        <v>4.416526317542349</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8735164747438944</v>
       </c>
       <c r="J23">
-        <v>14.64693221986312</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.63039773867857</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9433068217137475</v>
+        <v>0.9438748866343758</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1663589300290624</v>
+        <v>0.1655454889450283</v>
       </c>
       <c r="E24">
-        <v>2.877588345811645</v>
+        <v>2.875935720355301</v>
       </c>
       <c r="F24">
-        <v>6.12518079552936</v>
+        <v>6.111524234200374</v>
       </c>
       <c r="G24">
-        <v>5.131842869068151</v>
+        <v>1.754823111313215</v>
       </c>
       <c r="H24">
-        <v>0.7506071176035576</v>
+        <v>3.364511605575785</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7519825385861836</v>
       </c>
       <c r="J24">
-        <v>11.99636559022235</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.98508559202338</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7666158670306515</v>
+        <v>0.767095994576124</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1118167920649427</v>
+        <v>0.1112755392569298</v>
       </c>
       <c r="E25">
-        <v>2.143008510765355</v>
+        <v>2.142203017036934</v>
       </c>
       <c r="F25">
-        <v>4.543820533763153</v>
+        <v>4.53452741359169</v>
       </c>
       <c r="G25">
-        <v>3.788010204892885</v>
+        <v>1.294326477781439</v>
       </c>
       <c r="H25">
-        <v>0.6370379968781563</v>
+        <v>2.486342264098496</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6381777251328629</v>
       </c>
       <c r="J25">
-        <v>9.484591265592542</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.476876263963788</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.640203357156139</v>
+        <v>0.2679517407263461</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08118956818234579</v>
+        <v>0.2287037757894268</v>
       </c>
       <c r="E2">
-        <v>1.690075193477739</v>
+        <v>0.03721758402586062</v>
       </c>
       <c r="F2">
-        <v>3.566099567933776</v>
+        <v>6.705030601989449</v>
       </c>
       <c r="G2">
-        <v>1.012226498537473</v>
+        <v>0.0007636162582469587</v>
       </c>
       <c r="H2">
-        <v>1.951555674819787</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.563944297852558</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05024105889423147</v>
       </c>
       <c r="K2">
-        <v>7.776569202002008</v>
+        <v>4.080428230588012</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.437483873394044</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5553980528241027</v>
+        <v>0.2334492730673503</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06435958481419135</v>
+        <v>0.1916388354348442</v>
       </c>
       <c r="E3">
-        <v>1.414391598957906</v>
+        <v>0.03332710906485126</v>
       </c>
       <c r="F3">
-        <v>2.981472316346611</v>
+        <v>5.910511948743761</v>
       </c>
       <c r="G3">
-        <v>0.8421084731869968</v>
+        <v>0.0007839030310575028</v>
       </c>
       <c r="H3">
-        <v>1.630709065502515</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5179392929629358</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0506687728413624</v>
       </c>
       <c r="K3">
-        <v>6.676458207061046</v>
+        <v>3.483800196396516</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.090395393012216</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5037104767321807</v>
+        <v>0.2125939973668949</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05524287551892115</v>
+        <v>0.1702385480557211</v>
       </c>
       <c r="E4">
-        <v>1.255344405522479</v>
+        <v>0.03104704073844999</v>
       </c>
       <c r="F4">
-        <v>2.647489124876756</v>
+        <v>5.455301393480994</v>
       </c>
       <c r="G4">
-        <v>0.7449581727499179</v>
+        <v>0.0007964065194261893</v>
       </c>
       <c r="H4">
-        <v>1.448209899165633</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4914119924884091</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05104443135642711</v>
       </c>
       <c r="K4">
-        <v>6.018339072932719</v>
+        <v>3.131933092920349</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.885737721565832</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4827189177461975</v>
+        <v>0.2041662841579779</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05177295362697265</v>
+        <v>0.1617944271897329</v>
       </c>
       <c r="E5">
-        <v>1.192551386969782</v>
+        <v>0.03013910971905531</v>
       </c>
       <c r="F5">
-        <v>2.516476757850498</v>
+        <v>5.276651255151535</v>
       </c>
       <c r="G5">
-        <v>0.7068506717420888</v>
+        <v>0.0008015285681094146</v>
       </c>
       <c r="H5">
-        <v>1.376796814083193</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4809848040000944</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05122282847388959</v>
       </c>
       <c r="K5">
-        <v>5.75355036961173</v>
+        <v>2.991500270699163</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.804075753750681</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4792369544641701</v>
+        <v>0.202770839381671</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05121005748338803</v>
+        <v>0.1604073336887382</v>
       </c>
       <c r="E6">
-        <v>1.182232881535029</v>
+        <v>0.02998947404501884</v>
       </c>
       <c r="F6">
-        <v>2.494999277586615</v>
+        <v>5.247365453848204</v>
       </c>
       <c r="G6">
-        <v>0.7006034668320353</v>
+        <v>0.0008023810820688305</v>
       </c>
       <c r="H6">
-        <v>1.365099797511917</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.479275196327464</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0512538999697334</v>
       </c>
       <c r="K6">
-        <v>5.709763294564624</v>
+        <v>2.968342483793407</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.790610779841884</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5034271174978073</v>
+        <v>0.2124800653825645</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05519515673391595</v>
+        <v>0.1701236241322164</v>
       </c>
       <c r="E7">
-        <v>1.254490015196637</v>
+        <v>0.03103471735119534</v>
       </c>
       <c r="F7">
-        <v>2.645703041948053</v>
+        <v>5.452865920210996</v>
       </c>
       <c r="G7">
-        <v>0.7444386561213179</v>
+        <v>0.0007964754709604091</v>
       </c>
       <c r="H7">
-        <v>1.447235633612422</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4912698774415318</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05104673847829844</v>
       </c>
       <c r="K7">
-        <v>6.014755402342502</v>
+        <v>3.130028007087049</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.884629825337541</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6108666617332119</v>
+        <v>0.2559792525405413</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07509269591837864</v>
+        <v>0.2155987667902792</v>
       </c>
       <c r="E8">
-        <v>1.592521809509194</v>
+        <v>0.03584947481590284</v>
       </c>
       <c r="F8">
-        <v>3.358531433019891</v>
+        <v>6.423409158747688</v>
       </c>
       <c r="G8">
-        <v>0.9518151576131402</v>
+        <v>0.0007706112016294369</v>
       </c>
       <c r="H8">
-        <v>1.837452720969125</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5476923417123061</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05036299765802177</v>
       </c>
       <c r="K8">
-        <v>7.39299981022242</v>
+        <v>3.871254621422707</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.31579391442726</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8259973632953574</v>
+        <v>0.3445404907250804</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1275570765233311</v>
+        <v>0.3193724218997289</v>
       </c>
       <c r="E9">
-        <v>2.371283872952247</v>
+        <v>0.04652209042389543</v>
       </c>
       <c r="F9">
-        <v>5.027256442188502</v>
+        <v>8.664621078932043</v>
       </c>
       <c r="G9">
-        <v>1.438044305399501</v>
+        <v>0.0007193984092228225</v>
       </c>
       <c r="H9">
-        <v>2.759819123387786</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6747565046757771</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05010261597896815</v>
       </c>
       <c r="K9">
-        <v>10.29212751508646</v>
+        <v>5.479595716970948</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.251184344259272</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.989385935118321</v>
+        <v>0.412745355480709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1825133697154371</v>
+        <v>0.4121075343033027</v>
       </c>
       <c r="E10">
-        <v>3.090907433460345</v>
+        <v>0.05586318969372783</v>
       </c>
       <c r="F10">
-        <v>6.571137480743886</v>
+        <v>10.67229818096541</v>
       </c>
       <c r="G10">
-        <v>1.889338527968903</v>
+        <v>0.0006797720654368928</v>
       </c>
       <c r="H10">
-        <v>3.621952234987532</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7832625973278482</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.05093488763861842</v>
       </c>
       <c r="K10">
-        <v>12.6650347101621</v>
+        <v>6.834343242252515</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.037902394198142</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.065789954638603</v>
+        <v>0.4448251278568307</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2145974424975066</v>
+        <v>0.4607000967824604</v>
       </c>
       <c r="E11">
-        <v>3.484141097527939</v>
+        <v>0.0607255808417726</v>
       </c>
       <c r="F11">
-        <v>7.405455651857068</v>
+        <v>11.72069631927383</v>
       </c>
       <c r="G11">
-        <v>2.133904076623082</v>
+        <v>0.0006606902657611777</v>
       </c>
       <c r="H11">
-        <v>4.090863776050469</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8376923778550065</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0516721200179866</v>
       </c>
       <c r="K11">
-        <v>13.84787909977206</v>
+        <v>7.517102329866844</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.433726844393945</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.095145946314176</v>
+        <v>0.4571697992269605</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2283370079574354</v>
+        <v>0.4804144755017035</v>
       </c>
       <c r="E12">
-        <v>3.648159806251016</v>
+        <v>0.06269587646729136</v>
       </c>
       <c r="F12">
-        <v>7.750274811532506</v>
+        <v>12.1448817890323</v>
       </c>
       <c r="G12">
-        <v>2.235133169766982</v>
+        <v>0.0006532277656525306</v>
       </c>
       <c r="H12">
-        <v>4.285241268303338</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8592722236016641</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.05202191430100811</v>
       </c>
       <c r="K12">
-        <v>14.31860204621825</v>
+        <v>7.789164340187881</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.591303379019848</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.088802013616714</v>
+        <v>0.4545014764908046</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2252933539712956</v>
+        <v>0.4761016894623253</v>
       </c>
       <c r="E13">
-        <v>3.612024283418393</v>
+        <v>0.06226490011105668</v>
       </c>
       <c r="F13">
-        <v>7.67449097167605</v>
+        <v>12.05214978011804</v>
       </c>
       <c r="G13">
-        <v>2.212877375917458</v>
+        <v>0.0006548473044369951</v>
       </c>
       <c r="H13">
-        <v>4.242492779198045</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8545763003873361</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.05194302344528623</v>
       </c>
       <c r="K13">
-        <v>14.216019731133</v>
+        <v>7.729884348155792</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4.556976519947085</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.068195639457599</v>
+        <v>0.4458364620584661</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2156911372574939</v>
+        <v>0.4622927017447864</v>
       </c>
       <c r="E14">
-        <v>3.49728412867286</v>
+        <v>0.06088477783596602</v>
       </c>
       <c r="F14">
-        <v>7.433163394280399</v>
+        <v>11.7549909819362</v>
       </c>
       <c r="G14">
-        <v>2.142034934238126</v>
+        <v>0.0006600817056396373</v>
       </c>
       <c r="H14">
-        <v>4.106470542322512</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8394465228535779</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05169933700327078</v>
       </c>
       <c r="K14">
-        <v>13.88608305410955</v>
+        <v>7.539184216949991</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.446519865224985</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.055633638228443</v>
+        <v>0.4405561693567535</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2100405458231904</v>
+        <v>0.4540204250234865</v>
       </c>
       <c r="E15">
-        <v>3.42920984327867</v>
+        <v>0.06005780253651416</v>
       </c>
       <c r="F15">
-        <v>7.289514168316714</v>
+        <v>11.57680845518524</v>
       </c>
       <c r="G15">
-        <v>2.099887231859924</v>
+        <v>0.0006632538676794084</v>
       </c>
       <c r="H15">
-        <v>4.025581673317021</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8303144566955325</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05156000334136479</v>
       </c>
       <c r="K15">
-        <v>13.68728561965861</v>
+        <v>7.424286351526177</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4.379948129645598</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9844438318841071</v>
+        <v>0.4106735490041444</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1805996519673272</v>
+        <v>0.409090121028143</v>
       </c>
       <c r="E16">
-        <v>3.066930462204851</v>
+        <v>0.05556079069069142</v>
       </c>
       <c r="F16">
-        <v>6.519977143706626</v>
+        <v>10.60708302558191</v>
       </c>
       <c r="G16">
-        <v>1.874358119969628</v>
+        <v>0.0006809915012420257</v>
       </c>
       <c r="H16">
-        <v>3.593264669660755</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7798253964434352</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.05089534566364406</v>
       </c>
       <c r="K16">
-        <v>12.59038159993338</v>
+        <v>6.791357689604183</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.012965211319596</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9413743213556245</v>
+        <v>0.3926385013680829</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1646541204321323</v>
+        <v>0.3833921878924968</v>
       </c>
       <c r="E17">
-        <v>2.864486472204135</v>
+        <v>0.05298217579194642</v>
       </c>
       <c r="F17">
-        <v>6.086993043028627</v>
+        <v>10.05125442006701</v>
       </c>
       <c r="G17">
-        <v>1.747647622902349</v>
+        <v>0.0006915537583886433</v>
       </c>
       <c r="H17">
-        <v>3.350789144887216</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7502879088227417</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.05059032802324026</v>
       </c>
       <c r="K17">
-        <v>11.94819556823609</v>
+        <v>6.422379569228298</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3.798836223562731</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.916787641694583</v>
+        <v>0.3823608913301797</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1561022274892068</v>
+        <v>0.3691832870985223</v>
       </c>
       <c r="E18">
-        <v>2.753777489571732</v>
+        <v>0.05155345567123959</v>
       </c>
       <c r="F18">
-        <v>5.84956439252619</v>
+        <v>9.743659038220898</v>
       </c>
       <c r="G18">
-        <v>1.6782195043277</v>
+        <v>0.0006975362459195011</v>
       </c>
       <c r="H18">
-        <v>3.218070899203497</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7337571861380496</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0504471285528183</v>
       </c>
       <c r="K18">
-        <v>11.58790867121181</v>
+        <v>6.216097077298429</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3.679069851566254</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9084920433389527</v>
+        <v>0.378896379992085</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1533011844629257</v>
+        <v>0.364461517266065</v>
       </c>
       <c r="E19">
-        <v>2.717162058526824</v>
+        <v>0.0510781289628941</v>
       </c>
       <c r="F19">
-        <v>5.7709589011491</v>
+        <v>9.641409744983491</v>
       </c>
       <c r="G19">
-        <v>1.655242184499002</v>
+        <v>0.0006995478861601077</v>
       </c>
       <c r="H19">
-        <v>3.174170852835118</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.728233327076758</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0504037399859385</v>
       </c>
       <c r="K19">
-        <v>11.46731246052903</v>
+        <v>6.147181787587641</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3.639049884722496</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9459392066960959</v>
+        <v>0.3945481861384934</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1662844346980847</v>
+        <v>0.3860663358004359</v>
       </c>
       <c r="E20">
-        <v>2.885414712254672</v>
+        <v>0.05325080818870553</v>
       </c>
       <c r="F20">
-        <v>6.131830380107232</v>
+        <v>10.10912586646884</v>
       </c>
       <c r="G20">
-        <v>1.760763062540747</v>
+        <v>0.0006904394672354056</v>
       </c>
       <c r="H20">
-        <v>3.375872027011781</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7533833966515928</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.05061935186488853</v>
       </c>
       <c r="K20">
-        <v>12.01557516751768</v>
+        <v>6.461019856506823</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3.821266333316942</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.074235397329289</v>
+        <v>0.4483757930969716</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2184617052518689</v>
+        <v>0.466308933870522</v>
       </c>
       <c r="E21">
-        <v>3.530509114330826</v>
+        <v>0.06128621361719944</v>
       </c>
       <c r="F21">
-        <v>7.503149302640423</v>
+        <v>11.84145449083729</v>
       </c>
       <c r="G21">
-        <v>2.162574939144577</v>
+        <v>0.0006585515505260923</v>
       </c>
       <c r="H21">
-        <v>4.145900691766315</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8438616708398143</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.05176879451406791</v>
       </c>
       <c r="K21">
-        <v>13.98228313704038</v>
+        <v>7.594788974830777</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4.478731602362672</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.160675475548004</v>
+        <v>0.484739168620834</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2625074369575344</v>
+        <v>0.5267720779399099</v>
       </c>
       <c r="E22">
-        <v>4.047092800150679</v>
+        <v>0.06732878172171297</v>
       </c>
       <c r="F22">
-        <v>8.579065402845117</v>
+        <v>13.13914174157969</v>
       </c>
       <c r="G22">
-        <v>2.478824141502315</v>
+        <v>0.0006362540125745113</v>
       </c>
       <c r="H22">
-        <v>4.753781764245332</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9088697217127617</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05294946579782689</v>
       </c>
       <c r="K22">
-        <v>15.40965362325622</v>
+        <v>8.418178098366297</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4.955260708142802</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.114240406169444</v>
+        <v>0.4652025200993393</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2377617370592588</v>
+        <v>0.4935758645407304</v>
       </c>
       <c r="E23">
-        <v>3.759384316493296</v>
+        <v>0.06401102345006748</v>
       </c>
       <c r="F23">
-        <v>7.982838584908592</v>
+        <v>12.42763912747353</v>
       </c>
       <c r="G23">
-        <v>2.303459153807324</v>
+        <v>0.0006483290997392791</v>
       </c>
       <c r="H23">
-        <v>4.416526317542349</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8735164747438944</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05227065547222409</v>
       </c>
       <c r="K23">
-        <v>14.63039773867857</v>
+        <v>7.969259021321847</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4.695562363587769</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9438748866343758</v>
+        <v>0.3936845374129661</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1655454889450283</v>
+        <v>0.384855619475502</v>
       </c>
       <c r="E24">
-        <v>2.875935720355301</v>
+        <v>0.05312919476071087</v>
       </c>
       <c r="F24">
-        <v>6.111524234200374</v>
+        <v>10.08292546275396</v>
       </c>
       <c r="G24">
-        <v>1.754823111313215</v>
+        <v>0.000690943512315536</v>
       </c>
       <c r="H24">
-        <v>3.364511605575785</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7519825385861836</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.05060613129582947</v>
       </c>
       <c r="K24">
-        <v>11.98508559202338</v>
+        <v>6.443532634512621</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3.811115430326481</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.767095994576124</v>
+        <v>0.3201306438001836</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1112755392569298</v>
+        <v>0.2891015922499918</v>
       </c>
       <c r="E25">
-        <v>2.142203017036934</v>
+        <v>0.04344132137439871</v>
       </c>
       <c r="F25">
-        <v>4.53452741359169</v>
+        <v>8.009075159955756</v>
       </c>
       <c r="G25">
-        <v>1.294326477781439</v>
+        <v>0.0007334488984835294</v>
       </c>
       <c r="H25">
-        <v>2.486342264098496</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6381777251328629</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05002694677832764</v>
       </c>
       <c r="K25">
-        <v>9.476876263963788</v>
+        <v>5.021304550301267</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>2.984749934401336</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2679517407263461</v>
+        <v>2.320338207699706</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2287037757894268</v>
+        <v>0.2723746226538424</v>
       </c>
       <c r="E2">
-        <v>0.03721758402586062</v>
+        <v>4.11960535783615</v>
       </c>
       <c r="F2">
-        <v>6.705030601989449</v>
+        <v>6.364117800098398</v>
       </c>
       <c r="G2">
-        <v>0.0007636162582469587</v>
+        <v>0.0006772157777335218</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2359678766651552</v>
       </c>
       <c r="J2">
-        <v>0.05024105889423147</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.080428230588012</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.661189450067923</v>
       </c>
       <c r="M2">
-        <v>2.437483873394044</v>
+        <v>0.9602147143861117</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2334492730673503</v>
+        <v>2.006694927070782</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1916388354348442</v>
+        <v>0.2283974755609393</v>
       </c>
       <c r="E3">
-        <v>0.03332710906485126</v>
+        <v>3.505615102000746</v>
       </c>
       <c r="F3">
-        <v>5.910511948743761</v>
+        <v>5.369812375506143</v>
       </c>
       <c r="G3">
-        <v>0.0007839030310575028</v>
+        <v>0.0006991689291392635</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.284616667485416</v>
       </c>
       <c r="J3">
-        <v>0.0506687728413624</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.483800196396516</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.415914822766013</v>
       </c>
       <c r="M3">
-        <v>2.090395393012216</v>
+        <v>0.8249449150139654</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2125939973668949</v>
+        <v>1.818014247409934</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1702385480557211</v>
+        <v>0.2038227203668441</v>
       </c>
       <c r="E4">
-        <v>0.03104704073844999</v>
+        <v>3.145295017456419</v>
       </c>
       <c r="F4">
-        <v>5.455301393480994</v>
+        <v>4.80234546620963</v>
       </c>
       <c r="G4">
-        <v>0.0007964065194261893</v>
+        <v>0.000712578969102506</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3172267603409171</v>
       </c>
       <c r="J4">
-        <v>0.05104443135642711</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.131933092920349</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.271432776576773</v>
       </c>
       <c r="M4">
-        <v>1.885737721565832</v>
+        <v>0.7443647581163191</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2041662841579779</v>
+        <v>1.741909608587321</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1617944271897329</v>
+        <v>0.1942999164989061</v>
       </c>
       <c r="E5">
-        <v>0.03013910971905531</v>
+        <v>3.001707260502769</v>
       </c>
       <c r="F5">
-        <v>5.276651255151535</v>
+        <v>4.579807119650525</v>
       </c>
       <c r="G5">
-        <v>0.0008015285681094146</v>
+        <v>0.0007180489674134538</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3311405128889326</v>
       </c>
       <c r="J5">
-        <v>0.05122282847388959</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.991500270699163</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.213781742217805</v>
       </c>
       <c r="M5">
-        <v>1.804075753750681</v>
+        <v>0.712025234498995</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.202770839381671</v>
+        <v>1.729314841924719</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1604073336887382</v>
+        <v>0.192745380995234</v>
       </c>
       <c r="E6">
-        <v>0.02998947404501884</v>
+        <v>2.978037040754202</v>
       </c>
       <c r="F6">
-        <v>5.247365453848204</v>
+        <v>4.543327706874265</v>
       </c>
       <c r="G6">
-        <v>0.0008023810820688305</v>
+        <v>0.000718958146804163</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3334869717857938</v>
       </c>
       <c r="J6">
-        <v>0.0512538999697334</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.968342483793407</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.204275042953327</v>
       </c>
       <c r="M6">
-        <v>1.790610779841884</v>
+        <v>0.7066821558986334</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2124800653825645</v>
+        <v>1.816984929430703</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1701236241322164</v>
+        <v>0.2036924394922721</v>
       </c>
       <c r="E7">
-        <v>0.03103471735119534</v>
+        <v>3.143346493891784</v>
       </c>
       <c r="F7">
-        <v>5.452865920210996</v>
+        <v>4.79931142788746</v>
       </c>
       <c r="G7">
-        <v>0.0007964754709604091</v>
+        <v>0.0007126526916569413</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3174119519427165</v>
       </c>
       <c r="J7">
-        <v>0.05104673847829844</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3.130028007087049</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.270650671777219</v>
       </c>
       <c r="M7">
-        <v>1.884629825337541</v>
+        <v>0.7439267480268228</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2559792525405413</v>
+        <v>2.211253887641305</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2155987667902792</v>
+        <v>0.256626490488614</v>
       </c>
       <c r="E8">
-        <v>0.03584947481590284</v>
+        <v>3.903793594316539</v>
       </c>
       <c r="F8">
-        <v>6.423409158747688</v>
+        <v>6.010910339730032</v>
       </c>
       <c r="G8">
-        <v>0.0007706112016294369</v>
+        <v>0.0006848150656229013</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2521307306366598</v>
       </c>
       <c r="J8">
-        <v>0.05036299765802177</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3.871254621422707</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.575137848492005</v>
       </c>
       <c r="M8">
-        <v>2.31579391442726</v>
+        <v>0.9129753996069709</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3445404907250804</v>
+        <v>3.027105428780487</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3193724218997289</v>
+        <v>0.3871978562555256</v>
       </c>
       <c r="E9">
-        <v>0.04652209042389543</v>
+        <v>5.587614373389215</v>
       </c>
       <c r="F9">
-        <v>8.664621078932043</v>
+        <v>8.860934489998925</v>
       </c>
       <c r="G9">
-        <v>0.0007193984092228225</v>
+        <v>0.0006282481913798742</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1496399573689224</v>
       </c>
       <c r="J9">
-        <v>0.05010261597896815</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5.479595716970948</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.240110435341421</v>
       </c>
       <c r="M9">
-        <v>3.251184344259272</v>
+        <v>1.271792017996091</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.412745355480709</v>
+        <v>3.677054089251953</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4121075343033027</v>
+        <v>0.5162373010768704</v>
       </c>
       <c r="E10">
-        <v>0.05586318969372783</v>
+        <v>7.07798843899522</v>
       </c>
       <c r="F10">
-        <v>10.67229818096541</v>
+        <v>11.53697492726789</v>
       </c>
       <c r="G10">
-        <v>0.0006797720654368928</v>
+        <v>0.0005823151566247733</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.09768059579655208</v>
       </c>
       <c r="J10">
-        <v>0.05093488763861842</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>6.834343242252515</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.812137216575024</v>
       </c>
       <c r="M10">
-        <v>4.037902394198142</v>
+        <v>1.568493581007203</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4448251278568307</v>
+        <v>3.993917689066052</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4607000967824604</v>
+        <v>0.5897755366858348</v>
       </c>
       <c r="E11">
-        <v>0.0607255808417726</v>
+        <v>7.873265938451368</v>
       </c>
       <c r="F11">
-        <v>11.72069631927383</v>
+        <v>13.0122244051264</v>
       </c>
       <c r="G11">
-        <v>0.0006606902657611777</v>
+        <v>0.0005590408557686164</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.08230387362142366</v>
       </c>
       <c r="J11">
-        <v>0.0516721200179866</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>7.517102329866844</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.109015659445049</v>
       </c>
       <c r="M11">
-        <v>4.433726844393945</v>
+        <v>1.717745192605065</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4571697992269605</v>
+        <v>4.118626591172983</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4804144755017035</v>
+        <v>0.6210970208001072</v>
       </c>
       <c r="E12">
-        <v>0.06269587646729136</v>
+        <v>8.202240813678856</v>
       </c>
       <c r="F12">
-        <v>12.1448817890323</v>
+        <v>13.63070576835929</v>
       </c>
       <c r="G12">
-        <v>0.0006532277656525306</v>
+        <v>0.00054963674355105</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.07818556688667755</v>
       </c>
       <c r="J12">
-        <v>0.05202191430100811</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>7.789164340187881</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.229869965074442</v>
       </c>
       <c r="M12">
-        <v>4.591303379019848</v>
+        <v>1.777510286879689</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4545014764908046</v>
+        <v>4.091516724950282</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4761016894623253</v>
+        <v>0.6141622868704815</v>
       </c>
       <c r="E13">
-        <v>0.06226490011105668</v>
+        <v>8.129870010911304</v>
       </c>
       <c r="F13">
-        <v>12.05214978011804</v>
+        <v>13.49426091656181</v>
       </c>
       <c r="G13">
-        <v>0.0006548473044369951</v>
+        <v>0.0005516947413421371</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.07898393643839441</v>
       </c>
       <c r="J13">
-        <v>0.05194302344528623</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.729884348155792</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3.203386367508358</v>
       </c>
       <c r="M13">
-        <v>4.556976519947085</v>
+        <v>1.764464254791093</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4458364620584661</v>
+        <v>4.004068618346423</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4622927017447864</v>
+        <v>0.5922708686527756</v>
       </c>
       <c r="E14">
-        <v>0.06088477783596602</v>
+        <v>7.899676176806253</v>
       </c>
       <c r="F14">
-        <v>11.7549909819362</v>
+        <v>13.06170775273807</v>
       </c>
       <c r="G14">
-        <v>0.0006600817056396373</v>
+        <v>0.0005582812053559811</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.08192649123297358</v>
       </c>
       <c r="J14">
-        <v>0.05169933700327078</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>7.539184216949991</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.118761749627168</v>
       </c>
       <c r="M14">
-        <v>4.446519865224985</v>
+        <v>1.722586655656357</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4405561693567535</v>
+        <v>3.951190201954091</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4540204250234865</v>
+        <v>0.5793730959715333</v>
       </c>
       <c r="E15">
-        <v>0.06005780253651416</v>
+        <v>7.762780728782133</v>
       </c>
       <c r="F15">
-        <v>11.57680845518524</v>
+        <v>12.80554298914609</v>
       </c>
       <c r="G15">
-        <v>0.0006632538676794084</v>
+        <v>0.0005622277980699142</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.08397280923189143</v>
       </c>
       <c r="J15">
-        <v>0.05156000334136479</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>7.424286351526177</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.06816230726389</v>
       </c>
       <c r="M15">
-        <v>4.379948129645598</v>
+        <v>1.697409811102659</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4106735490041444</v>
+        <v>3.656890113140037</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.409090121028143</v>
+        <v>0.5118222360061679</v>
       </c>
       <c r="E16">
-        <v>0.05556079069069142</v>
+        <v>7.029128818731095</v>
       </c>
       <c r="F16">
-        <v>10.60708302558191</v>
+        <v>11.44732565799077</v>
       </c>
       <c r="G16">
-        <v>0.0006809915012420257</v>
+        <v>0.0005837711705438769</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.09888813128127616</v>
       </c>
       <c r="J16">
-        <v>0.05089534566364406</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>6.791357689604183</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.793692495474147</v>
       </c>
       <c r="M16">
-        <v>4.012965211319596</v>
+        <v>1.559110082026962</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3926385013680829</v>
+        <v>3.482644138366595</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3833921878924968</v>
+        <v>0.4748573518652393</v>
       </c>
       <c r="E17">
-        <v>0.05298217579194642</v>
+        <v>6.614609309454778</v>
       </c>
       <c r="F17">
-        <v>10.05125442006701</v>
+        <v>10.69169009782405</v>
       </c>
       <c r="G17">
-        <v>0.0006915537583886433</v>
+        <v>0.0005962523741107617</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1104241910404014</v>
       </c>
       <c r="J17">
-        <v>0.05059032802324026</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>6.422379569228298</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.636316128313382</v>
       </c>
       <c r="M17">
-        <v>3.798836223562731</v>
+        <v>1.478537631571015</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3823608913301797</v>
+        <v>3.38428012516863</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3691832870985223</v>
+        <v>0.4548805717454485</v>
       </c>
       <c r="E18">
-        <v>0.05155345567123959</v>
+        <v>6.386312272232175</v>
       </c>
       <c r="F18">
-        <v>9.743659038220898</v>
+        <v>10.27944563673856</v>
       </c>
       <c r="G18">
-        <v>0.0006975362459195011</v>
+        <v>0.0006032280558577795</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1177944636988641</v>
       </c>
       <c r="J18">
-        <v>0.0504471285528183</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6.216097077298429</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.548985141991636</v>
       </c>
       <c r="M18">
-        <v>3.679069851566254</v>
+        <v>1.433439718164479</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.378896379992085</v>
+        <v>3.351260535713436</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.364461517266065</v>
+        <v>0.448310976318183</v>
       </c>
       <c r="E19">
-        <v>0.0510781289628941</v>
+        <v>6.310538183878236</v>
       </c>
       <c r="F19">
-        <v>9.641409744983491</v>
+        <v>10.14325815076057</v>
       </c>
       <c r="G19">
-        <v>0.0006995478861601077</v>
+        <v>0.0006055599240877285</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1204054512507629</v>
       </c>
       <c r="J19">
-        <v>0.0504037399859385</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>6.147181787587641</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.519900558988923</v>
       </c>
       <c r="M19">
-        <v>3.639049884722496</v>
+        <v>1.418360118142857</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3945481861384934</v>
+        <v>3.500992050880768</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3860663358004359</v>
+        <v>0.4786527243123686</v>
       </c>
       <c r="E20">
-        <v>0.05325080818870553</v>
+        <v>6.657633462519954</v>
       </c>
       <c r="F20">
-        <v>10.10912586646884</v>
+        <v>10.7696988634039</v>
       </c>
       <c r="G20">
-        <v>0.0006904394672354056</v>
+        <v>0.0005949459977228832</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1091174000259478</v>
       </c>
       <c r="J20">
-        <v>0.05061935186488853</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>6.461019856506823</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.652723242056254</v>
       </c>
       <c r="M20">
-        <v>3.821266333316942</v>
+        <v>1.486979767284353</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4483757930969716</v>
+        <v>4.029606172153251</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.466308933870522</v>
+        <v>0.598590088561366</v>
       </c>
       <c r="E21">
-        <v>0.06128621361719944</v>
+        <v>7.966399414493566</v>
       </c>
       <c r="F21">
-        <v>11.84145449083729</v>
+        <v>13.1868564027771</v>
       </c>
       <c r="G21">
-        <v>0.0006585515505260923</v>
+        <v>0.0005563656851852693</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.08100979924120111</v>
       </c>
       <c r="J21">
-        <v>0.05176879451406791</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>7.594788974830777</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.143350687979591</v>
       </c>
       <c r="M21">
-        <v>4.478731602362672</v>
+        <v>1.734784561688187</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.484739168620834</v>
+        <v>4.404717587197069</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5267720779399099</v>
+        <v>0.6990434468843887</v>
       </c>
       <c r="E22">
-        <v>0.06732878172171297</v>
+        <v>8.998788874624523</v>
       </c>
       <c r="F22">
-        <v>13.13914174157969</v>
+        <v>15.14578241698769</v>
       </c>
       <c r="G22">
-        <v>0.0006362540125745113</v>
+        <v>0.0005273742262895746</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.07321989000883278</v>
       </c>
       <c r="J22">
-        <v>0.05294946579782689</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>8.418178098366297</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3.517327575622602</v>
       </c>
       <c r="M22">
-        <v>4.955260708142802</v>
+        <v>1.91721824335221</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4652025200993393</v>
+        <v>4.200798236298112</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4935758645407304</v>
+        <v>0.6425672920384784</v>
       </c>
       <c r="E23">
-        <v>0.06401102345006748</v>
+        <v>8.424686337052208</v>
       </c>
       <c r="F23">
-        <v>12.42763912747353</v>
+        <v>14.0514074700518</v>
       </c>
       <c r="G23">
-        <v>0.0006483290997392791</v>
+        <v>0.0005433485611735925</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0761027517755295</v>
       </c>
       <c r="J23">
-        <v>0.05227065547222409</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>7.969259021321847</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>3.310899550803384</v>
       </c>
       <c r="M23">
-        <v>4.695562363587769</v>
+        <v>1.817246411607229</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3936845374129661</v>
+        <v>3.492691418936943</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.384855619475502</v>
+        <v>0.4769329475285957</v>
       </c>
       <c r="E24">
-        <v>0.05312919476071087</v>
+        <v>6.638151714715804</v>
       </c>
       <c r="F24">
-        <v>10.08292546275396</v>
+        <v>10.73436340940944</v>
       </c>
       <c r="G24">
-        <v>0.000690943512315536</v>
+        <v>0.0005955372180020648</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1097059338336912</v>
       </c>
       <c r="J24">
-        <v>0.05060613129582947</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>6.443532634512621</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.645295979236039</v>
       </c>
       <c r="M24">
-        <v>3.811115430326481</v>
+        <v>1.48315933827314</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3201306438001836</v>
+        <v>2.799844627764799</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2891015922499918</v>
+        <v>0.3477104605667733</v>
       </c>
       <c r="E25">
-        <v>0.04344132137439871</v>
+        <v>5.101009942251096</v>
       </c>
       <c r="F25">
-        <v>8.009075159955756</v>
+        <v>8.016338881739102</v>
       </c>
       <c r="G25">
-        <v>0.0007334488984835294</v>
+        <v>0.0006440089583076554</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1740012927669294</v>
       </c>
       <c r="J25">
-        <v>0.05002694677832764</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5.021304550301267</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.049640804164824</v>
       </c>
       <c r="M25">
-        <v>2.984749934401336</v>
+        <v>1.170493975206796</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.320338207699706</v>
+        <v>1.233197250808075</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2723746226538424</v>
+        <v>0.1312773035674297</v>
       </c>
       <c r="E2">
-        <v>4.11960535783615</v>
+        <v>1.133037429069134</v>
       </c>
       <c r="F2">
-        <v>6.364117800098398</v>
+        <v>2.883205110301162</v>
       </c>
       <c r="G2">
-        <v>0.0006772157777335218</v>
+        <v>0.002453524519382204</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2359678766651552</v>
+        <v>1.005780433012761</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.661189450067923</v>
+        <v>0.6584819995441649</v>
       </c>
       <c r="M2">
-        <v>0.9602147143861117</v>
+        <v>0.4423747884246367</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.006694927070782</v>
+        <v>1.151319004853804</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2283974755609393</v>
+        <v>0.1255249957752937</v>
       </c>
       <c r="E3">
-        <v>3.505615102000746</v>
+        <v>0.9882062833839882</v>
       </c>
       <c r="F3">
-        <v>5.369812375506143</v>
+        <v>2.722142274669864</v>
       </c>
       <c r="G3">
-        <v>0.0006991689291392635</v>
+        <v>0.00246490523351781</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.284616667485416</v>
+        <v>1.033255439888704</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.415914822766013</v>
+        <v>0.6038886389110587</v>
       </c>
       <c r="M3">
-        <v>0.8249449150139654</v>
+        <v>0.4097149382431198</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.818014247409934</v>
+        <v>1.101414397856814</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2038227203668441</v>
+        <v>0.1221805798483331</v>
       </c>
       <c r="E4">
-        <v>3.145295017456419</v>
+        <v>0.8992458334219293</v>
       </c>
       <c r="F4">
-        <v>4.80234546620963</v>
+        <v>2.626493396448012</v>
       </c>
       <c r="G4">
-        <v>0.000712578969102506</v>
+        <v>0.002472232856386984</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3172267603409171</v>
+        <v>1.051068573535993</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.271432776576773</v>
+        <v>0.5707359580252387</v>
       </c>
       <c r="M4">
-        <v>0.7443647581163191</v>
+        <v>0.3898467245697717</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.741909608587321</v>
+        <v>1.081170176380084</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1942999164989061</v>
+        <v>0.1208635171718413</v>
       </c>
       <c r="E5">
-        <v>3.001707260502769</v>
+        <v>0.8629775507451711</v>
       </c>
       <c r="F5">
-        <v>4.579807119650525</v>
+        <v>2.588308421535061</v>
       </c>
       <c r="G5">
-        <v>0.0007180489674134538</v>
+        <v>0.002475304833636589</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3311405128889326</v>
+        <v>1.05856377288155</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.213781742217805</v>
+        <v>0.5573157195128147</v>
       </c>
       <c r="M5">
-        <v>0.712025234498995</v>
+        <v>0.3817959705443315</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.729314841924719</v>
+        <v>1.077814202070414</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.192745380995234</v>
+        <v>0.1206475482631504</v>
       </c>
       <c r="E6">
-        <v>2.978037040754202</v>
+        <v>0.8569540313695541</v>
       </c>
       <c r="F6">
-        <v>4.543327706874265</v>
+        <v>2.582015047715998</v>
       </c>
       <c r="G6">
-        <v>0.000718958146804163</v>
+        <v>0.002475820135499814</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3334869717857938</v>
+        <v>1.059822581732353</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.204275042953327</v>
+        <v>0.5550926408157579</v>
       </c>
       <c r="M6">
-        <v>0.7066821558986334</v>
+        <v>0.3804618858430331</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.816984929430703</v>
+        <v>1.101141004003637</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2036924394922721</v>
+        <v>0.1221626337349164</v>
       </c>
       <c r="E7">
-        <v>3.143346493891784</v>
+        <v>0.8987567822406959</v>
       </c>
       <c r="F7">
-        <v>4.79931142788746</v>
+        <v>2.625975240996382</v>
       </c>
       <c r="G7">
-        <v>0.0007126526916569413</v>
+        <v>0.002472273937567993</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3174119519427165</v>
+        <v>1.051168701359979</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.270650671777219</v>
+        <v>0.5705546081872797</v>
       </c>
       <c r="M7">
-        <v>0.7439267480268228</v>
+        <v>0.3897379653016344</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.211253887641305</v>
+        <v>1.204888720385952</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.256626490488614</v>
+        <v>0.1292541706045256</v>
       </c>
       <c r="E8">
-        <v>3.903793594316539</v>
+        <v>1.083101837305918</v>
       </c>
       <c r="F8">
-        <v>6.010910339730032</v>
+        <v>2.826983178027888</v>
       </c>
       <c r="G8">
-        <v>0.0006848150656229013</v>
+        <v>0.002457378340061374</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2521307306366598</v>
+        <v>1.015057407179969</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.575137848492005</v>
+        <v>0.6395801590695385</v>
       </c>
       <c r="M8">
-        <v>0.9129753996069709</v>
+        <v>0.4310747387634208</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.027105428780487</v>
+        <v>1.41130149988561</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3871978562555256</v>
+        <v>0.1447108880791603</v>
       </c>
       <c r="E9">
-        <v>5.587614373389215</v>
+        <v>1.444712242713337</v>
       </c>
       <c r="F9">
-        <v>8.860934489998925</v>
+        <v>3.247985200314844</v>
       </c>
       <c r="G9">
-        <v>0.0006282481913798742</v>
+        <v>0.002430843171569034</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1496399573689224</v>
+        <v>0.951773525028619</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.240110435341421</v>
+        <v>0.7779928598517643</v>
       </c>
       <c r="M9">
-        <v>1.271792017996091</v>
+        <v>0.5136481382919413</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.677054089251953</v>
+        <v>1.564831988596438</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5162373010768704</v>
+        <v>0.157101137707258</v>
       </c>
       <c r="E10">
-        <v>7.07798843899522</v>
+        <v>1.711016583969126</v>
       </c>
       <c r="F10">
-        <v>11.53697492726789</v>
+        <v>3.575213028226443</v>
       </c>
       <c r="G10">
-        <v>0.0005823151566247733</v>
+        <v>0.002412948501376417</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.09768059579655208</v>
+        <v>0.9099309523224512</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.812137216575024</v>
+        <v>0.8817492119154906</v>
       </c>
       <c r="M10">
-        <v>1.568493581007203</v>
+        <v>0.5753062029799025</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.993917689066052</v>
+        <v>1.635103367109707</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5897755366858348</v>
+        <v>0.1629823609494849</v>
       </c>
       <c r="E11">
-        <v>7.873265938451368</v>
+        <v>1.832430983881096</v>
       </c>
       <c r="F11">
-        <v>13.0122244051264</v>
+        <v>3.728320444587013</v>
       </c>
       <c r="G11">
-        <v>0.0005590408557686164</v>
+        <v>0.00240514875980438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.08230387362142366</v>
+        <v>0.8919194836049034</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.109015659445049</v>
+        <v>0.9294454863702981</v>
       </c>
       <c r="M11">
-        <v>1.717745192605065</v>
+        <v>0.6035876625097387</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.118626591172983</v>
+        <v>1.661776357647682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6210970208001072</v>
+        <v>0.1652463098193664</v>
       </c>
       <c r="E12">
-        <v>8.202240813678856</v>
+        <v>1.87845701251527</v>
       </c>
       <c r="F12">
-        <v>13.63070576835929</v>
+        <v>3.786938647137532</v>
       </c>
       <c r="G12">
-        <v>0.00054963674355105</v>
+        <v>0.002402243658878866</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.07818556688667755</v>
+        <v>0.8852473259317772</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.229869965074442</v>
+        <v>0.9475820471472503</v>
       </c>
       <c r="M12">
-        <v>1.777510286879689</v>
+        <v>0.6143318759023089</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.091516724950282</v>
+        <v>1.656029044763557</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6141622868704815</v>
+        <v>0.1647570618796408</v>
       </c>
       <c r="E13">
-        <v>8.129870010911304</v>
+        <v>1.868542138915615</v>
       </c>
       <c r="F13">
-        <v>13.49426091656181</v>
+        <v>3.774285250015794</v>
       </c>
       <c r="G13">
-        <v>0.0005516947413421371</v>
+        <v>0.002402867175613439</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.07898393643839441</v>
+        <v>0.8866776735450692</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.203386367508358</v>
+        <v>0.9436726198581766</v>
       </c>
       <c r="M13">
-        <v>1.764464254791093</v>
+        <v>0.6120163578441122</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.004068618346423</v>
+        <v>1.637296506680514</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5922708686527756</v>
+        <v>0.1631678690800413</v>
       </c>
       <c r="E14">
-        <v>7.899676176806253</v>
+        <v>1.836216531348072</v>
       </c>
       <c r="F14">
-        <v>13.06170775273807</v>
+        <v>3.733130010725944</v>
       </c>
       <c r="G14">
-        <v>0.0005582812053559811</v>
+        <v>0.002404908786491238</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.08192649123297358</v>
+        <v>0.8913675795785263</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.118761749627168</v>
+        <v>0.9309360678587666</v>
       </c>
       <c r="M14">
-        <v>1.722586655656357</v>
+        <v>0.6044708944209845</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.951190201954091</v>
+        <v>1.625830487951987</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5793730959715333</v>
+        <v>0.1621992923310245</v>
       </c>
       <c r="E15">
-        <v>7.762780728782133</v>
+        <v>1.816422853371876</v>
       </c>
       <c r="F15">
-        <v>12.80554298914609</v>
+        <v>3.708005417217777</v>
       </c>
       <c r="G15">
-        <v>0.0005622277980699142</v>
+        <v>0.002406165632356921</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.08397280923189143</v>
+        <v>0.8942596469024036</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.06816230726389</v>
+        <v>0.923144439151514</v>
       </c>
       <c r="M15">
-        <v>1.697409811102659</v>
+        <v>0.5998536262288781</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.656890113140037</v>
+        <v>1.560248313782722</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5118222360061679</v>
+        <v>0.1567218526062391</v>
       </c>
       <c r="E16">
-        <v>7.029128818731095</v>
+        <v>1.70308817291675</v>
       </c>
       <c r="F16">
-        <v>11.44732565799077</v>
+        <v>3.565295042686074</v>
       </c>
       <c r="G16">
-        <v>0.0005837711705438769</v>
+        <v>0.002413465045235582</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.09888813128127616</v>
+        <v>0.911128738372506</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.793692495474147</v>
+        <v>0.8786424492381855</v>
       </c>
       <c r="M16">
-        <v>1.559110082026962</v>
+        <v>0.5734627263884136</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.482644138366595</v>
+        <v>1.520126460301583</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4748573518652393</v>
+        <v>0.1534254878657322</v>
       </c>
       <c r="E17">
-        <v>6.614609309454778</v>
+        <v>1.633637488996044</v>
       </c>
       <c r="F17">
-        <v>10.69169009782405</v>
+        <v>3.478855422149877</v>
       </c>
       <c r="G17">
-        <v>0.0005962523741107617</v>
+        <v>0.002418029896128213</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1104241910404014</v>
+        <v>0.9217402898396525</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.636316128313382</v>
+        <v>0.8514716932942008</v>
       </c>
       <c r="M17">
-        <v>1.478537631571015</v>
+        <v>0.5573332132049842</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.38428012516863</v>
+        <v>1.497089802025755</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4548805717454485</v>
+        <v>0.1515524496148686</v>
       </c>
       <c r="E18">
-        <v>6.386312272232175</v>
+        <v>1.593716196198613</v>
       </c>
       <c r="F18">
-        <v>10.27944563673856</v>
+        <v>3.429535888065857</v>
       </c>
       <c r="G18">
-        <v>0.0006032280558577795</v>
+        <v>0.002420687569351262</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1177944636988641</v>
+        <v>0.9279399767584646</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.548985141991636</v>
+        <v>0.8358903514469205</v>
       </c>
       <c r="M18">
-        <v>1.433439718164479</v>
+        <v>0.5480777929687548</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.351260535713436</v>
+        <v>1.489296891163008</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.448310976318183</v>
+        <v>0.1509221621459318</v>
       </c>
       <c r="E19">
-        <v>6.310538183878236</v>
+        <v>1.580203510782184</v>
       </c>
       <c r="F19">
-        <v>10.14325815076057</v>
+        <v>3.41290468326747</v>
       </c>
       <c r="G19">
-        <v>0.0006055599240877285</v>
+        <v>0.002421592938606953</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1204054512507629</v>
+        <v>0.9300555681574192</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.519900558988923</v>
+        <v>0.8306226673371384</v>
       </c>
       <c r="M19">
-        <v>1.418360118142857</v>
+        <v>0.5449477852791063</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.500992050880768</v>
+        <v>1.524393315184454</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4786527243123686</v>
+        <v>0.153774005152485</v>
       </c>
       <c r="E20">
-        <v>6.657633462519954</v>
+        <v>1.641027984090584</v>
       </c>
       <c r="F20">
-        <v>10.7696988634039</v>
+        <v>3.48801564551519</v>
       </c>
       <c r="G20">
-        <v>0.0005949459977228832</v>
+        <v>0.002417540642045981</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1091174000259478</v>
+        <v>0.9206007061039667</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.652723242056254</v>
+        <v>0.8543592227620422</v>
       </c>
       <c r="M20">
-        <v>1.486979767284353</v>
+        <v>0.559047957983779</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.029606172153251</v>
+        <v>1.642796996083405</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.598590088561366</v>
+        <v>0.1636336398364335</v>
       </c>
       <c r="E21">
-        <v>7.966399414493566</v>
+        <v>1.845709933215034</v>
       </c>
       <c r="F21">
-        <v>13.1868564027771</v>
+        <v>3.745200706959139</v>
       </c>
       <c r="G21">
-        <v>0.0005563656851852693</v>
+        <v>0.002404307803668551</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.08100979924120111</v>
+        <v>0.8899860025842514</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.143350687979591</v>
+        <v>0.9346750369961967</v>
       </c>
       <c r="M21">
-        <v>1.734784561688187</v>
+        <v>0.6066862304124214</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.404717587197069</v>
+        <v>1.720546893701055</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6990434468843887</v>
+        <v>0.1702931151815505</v>
       </c>
       <c r="E22">
-        <v>8.998788874624523</v>
+        <v>1.97977216266122</v>
       </c>
       <c r="F22">
-        <v>15.14578241698769</v>
+        <v>3.917028883939111</v>
       </c>
       <c r="G22">
-        <v>0.0005273742262895746</v>
+        <v>0.002395941793718285</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.07321989000883278</v>
+        <v>0.8708431080054151</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.517327575622602</v>
+        <v>0.9876050682991036</v>
       </c>
       <c r="M22">
-        <v>1.91721824335221</v>
+        <v>0.6380230698616742</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.200798236298112</v>
+        <v>1.679016451007897</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6425672920384784</v>
+        <v>0.166718539061236</v>
       </c>
       <c r="E23">
-        <v>8.424686337052208</v>
+        <v>1.908190601180422</v>
       </c>
       <c r="F23">
-        <v>14.0514074700518</v>
+        <v>3.824968783743714</v>
       </c>
       <c r="G23">
-        <v>0.0005433485611735925</v>
+        <v>0.002400381213784904</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0761027517755295</v>
+        <v>0.8809803923370367</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.310899550803384</v>
+        <v>0.9593139358477742</v>
       </c>
       <c r="M23">
-        <v>1.817246411607229</v>
+        <v>0.6212790877174683</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.492691418936943</v>
+        <v>1.522464176939536</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4769329475285957</v>
+        <v>0.1536163718186003</v>
       </c>
       <c r="E24">
-        <v>6.638151714715804</v>
+        <v>1.637686720736184</v>
       </c>
       <c r="F24">
-        <v>10.73436340940944</v>
+        <v>3.483873140293156</v>
       </c>
       <c r="G24">
-        <v>0.0005955372180020648</v>
+        <v>0.00241776173026577</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1097059338336912</v>
+        <v>0.9211156037561103</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.645295979236039</v>
+        <v>0.8530536479611328</v>
       </c>
       <c r="M24">
-        <v>1.48315933827314</v>
+        <v>0.5582726669740055</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.799844627764799</v>
+        <v>1.35513695581659</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3477104605667733</v>
+        <v>0.1403544089792206</v>
       </c>
       <c r="E25">
-        <v>5.101009942251096</v>
+        <v>1.346818441759183</v>
       </c>
       <c r="F25">
-        <v>8.016338881739102</v>
+        <v>3.131062175588255</v>
       </c>
       <c r="G25">
-        <v>0.0006440089583076554</v>
+        <v>0.002437738342855809</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1740012927669294</v>
+        <v>0.9680810758473388</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.049640804164824</v>
+        <v>0.7402010924211311</v>
       </c>
       <c r="M25">
-        <v>1.170493975206796</v>
+        <v>0.4911409602197239</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.233197250808075</v>
+        <v>2.320338207699649</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1312773035674297</v>
+        <v>0.2723746226542403</v>
       </c>
       <c r="E2">
-        <v>1.133037429069134</v>
+        <v>4.119605357836122</v>
       </c>
       <c r="F2">
-        <v>2.883205110301162</v>
+        <v>6.364117800098427</v>
       </c>
       <c r="G2">
-        <v>0.002453524519382204</v>
+        <v>0.0006772157778200021</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.005780433012761</v>
+        <v>0.2359678766651427</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6584819995441649</v>
+        <v>1.661189450067894</v>
       </c>
       <c r="M2">
-        <v>0.4423747884246367</v>
+        <v>0.9602147143861188</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.151319004853804</v>
+        <v>2.006694927070953</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1255249957752937</v>
+        <v>0.2283974755612519</v>
       </c>
       <c r="E3">
-        <v>0.9882062833839882</v>
+        <v>3.505615102000803</v>
       </c>
       <c r="F3">
-        <v>2.722142274669864</v>
+        <v>5.369812375506143</v>
       </c>
       <c r="G3">
-        <v>0.00246490523351781</v>
+        <v>0.0006991689291907672</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.033255439888704</v>
+        <v>0.2846166674854</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6038886389110587</v>
+        <v>1.415914822766013</v>
       </c>
       <c r="M3">
-        <v>0.4097149382431198</v>
+        <v>0.8249449150139725</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.101414397856814</v>
+        <v>1.818014247410048</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1221805798483331</v>
+        <v>0.2038227203669862</v>
       </c>
       <c r="E4">
-        <v>0.8992458334219293</v>
+        <v>3.145295017456419</v>
       </c>
       <c r="F4">
-        <v>2.626493396448012</v>
+        <v>4.802345466209715</v>
       </c>
       <c r="G4">
-        <v>0.002472232856386984</v>
+        <v>0.0007125789691819107</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.051068573535993</v>
+        <v>0.31722676034091</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5707359580252387</v>
+        <v>1.271432776576887</v>
       </c>
       <c r="M4">
-        <v>0.3898467245697717</v>
+        <v>0.7443647581163191</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.081170176380084</v>
+        <v>1.741909608587378</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1208635171718413</v>
+        <v>0.1942999164989203</v>
       </c>
       <c r="E5">
-        <v>0.8629775507451711</v>
+        <v>3.001707260502769</v>
       </c>
       <c r="F5">
-        <v>2.588308421535061</v>
+        <v>4.579807119650525</v>
       </c>
       <c r="G5">
-        <v>0.002475304833636589</v>
+        <v>0.0007180489673895654</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.05856377288155</v>
+        <v>0.3311405128889362</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5573157195128147</v>
+        <v>1.213781742217833</v>
       </c>
       <c r="M5">
-        <v>0.3817959705443315</v>
+        <v>0.7120252344989879</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.077814202070414</v>
+        <v>1.729314841924662</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1206475482631504</v>
+        <v>0.192745380995234</v>
       </c>
       <c r="E6">
-        <v>0.8569540313695541</v>
+        <v>2.978037040754231</v>
       </c>
       <c r="F6">
-        <v>2.582015047715998</v>
+        <v>4.543327706874265</v>
       </c>
       <c r="G6">
-        <v>0.002475820135499814</v>
+        <v>0.000718958146802515</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.059822581732353</v>
+        <v>0.3334869717857796</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5550926408157579</v>
+        <v>1.20427504295327</v>
       </c>
       <c r="M6">
-        <v>0.3804618858430331</v>
+        <v>0.7066821558986263</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.101141004003637</v>
+        <v>1.81698492943076</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1221626337349164</v>
+        <v>0.2036924394924142</v>
       </c>
       <c r="E7">
-        <v>0.8987567822406959</v>
+        <v>3.143346493891698</v>
       </c>
       <c r="F7">
-        <v>2.625975240996382</v>
+        <v>4.799311427887517</v>
       </c>
       <c r="G7">
-        <v>0.002472273937567993</v>
+        <v>0.0007126526917342797</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.051168701359979</v>
+        <v>0.3174119519427094</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5705546081872797</v>
+        <v>1.270650671777304</v>
       </c>
       <c r="M7">
-        <v>0.3897379653016344</v>
+        <v>0.7439267480268299</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.204888720385952</v>
+        <v>2.211253887641476</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1292541706045256</v>
+        <v>0.2566264904882445</v>
       </c>
       <c r="E8">
-        <v>1.083101837305918</v>
+        <v>3.903793594316454</v>
       </c>
       <c r="F8">
-        <v>2.826983178027888</v>
+        <v>6.010910339730003</v>
       </c>
       <c r="G8">
-        <v>0.002457378340061374</v>
+        <v>0.0006848150656762577</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.015057407179969</v>
+        <v>0.2521307306366651</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6395801590695385</v>
+        <v>1.575137848492034</v>
       </c>
       <c r="M8">
-        <v>0.4310747387634208</v>
+        <v>0.9129753996069923</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.41130149988561</v>
+        <v>3.027105428780658</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1447108880791603</v>
+        <v>0.3871978562555256</v>
       </c>
       <c r="E9">
-        <v>1.444712242713337</v>
+        <v>5.587614373389215</v>
       </c>
       <c r="F9">
-        <v>3.247985200314844</v>
+        <v>8.86093448999884</v>
       </c>
       <c r="G9">
-        <v>0.002430843171569034</v>
+        <v>0.0006282481911819045</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.951773525028619</v>
+        <v>0.149639957368926</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7779928598517643</v>
+        <v>2.24011043534145</v>
       </c>
       <c r="M9">
-        <v>0.5136481382919413</v>
+        <v>1.271792017996091</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.564831988596438</v>
+        <v>3.677054089252067</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.157101137707258</v>
+        <v>0.5162373010768704</v>
       </c>
       <c r="E10">
-        <v>1.711016583969126</v>
+        <v>7.077988438995163</v>
       </c>
       <c r="F10">
-        <v>3.575213028226443</v>
+        <v>11.53697492726775</v>
       </c>
       <c r="G10">
-        <v>0.002412948501376417</v>
+        <v>0.0005823151566395548</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9099309523224512</v>
+        <v>0.09768059579656807</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8817492119154906</v>
+        <v>2.812137216574939</v>
       </c>
       <c r="M10">
-        <v>0.5753062029799025</v>
+        <v>1.568493581007218</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.635103367109707</v>
+        <v>3.993917689065995</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1629823609494849</v>
+        <v>0.5897755366858632</v>
       </c>
       <c r="E11">
-        <v>1.832430983881096</v>
+        <v>7.873265938451453</v>
       </c>
       <c r="F11">
-        <v>3.728320444587013</v>
+        <v>13.01222440512646</v>
       </c>
       <c r="G11">
-        <v>0.00240514875980438</v>
+        <v>0.0005590408559199514</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8919194836049034</v>
+        <v>0.08230387362142366</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9294454863702981</v>
+        <v>3.109015659445021</v>
       </c>
       <c r="M11">
-        <v>0.6035876625097387</v>
+        <v>1.717745192605065</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.661776357647682</v>
+        <v>4.11862659117287</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1652463098193664</v>
+        <v>0.6210970208001356</v>
       </c>
       <c r="E12">
-        <v>1.87845701251527</v>
+        <v>8.20224081367877</v>
       </c>
       <c r="F12">
-        <v>3.786938647137532</v>
+        <v>13.63070576835923</v>
       </c>
       <c r="G12">
-        <v>0.002402243658878866</v>
+        <v>0.0005496367435882695</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8852473259317772</v>
+        <v>0.07818556688667755</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9475820471472503</v>
+        <v>3.229869965074414</v>
       </c>
       <c r="M12">
-        <v>0.6143318759023089</v>
+        <v>1.777510286879703</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.656029044763557</v>
+        <v>4.091516724950566</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1647570618796408</v>
+        <v>0.6141622868702825</v>
       </c>
       <c r="E13">
-        <v>1.868542138915615</v>
+        <v>8.129870010911276</v>
       </c>
       <c r="F13">
-        <v>3.774285250015794</v>
+        <v>13.49426091656176</v>
       </c>
       <c r="G13">
-        <v>0.002402867175613439</v>
+        <v>0.0005516947414030962</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8866776735450692</v>
+        <v>0.07898393643839796</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9436726198581766</v>
+        <v>3.203386367508301</v>
       </c>
       <c r="M13">
-        <v>0.6120163578441122</v>
+        <v>1.764464254791122</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.637296506680514</v>
+        <v>4.00406861834648</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1631678690800413</v>
+        <v>0.5922708686527471</v>
       </c>
       <c r="E14">
-        <v>1.836216531348072</v>
+        <v>7.899676176806281</v>
       </c>
       <c r="F14">
-        <v>3.733130010725944</v>
+        <v>13.06170775273813</v>
       </c>
       <c r="G14">
-        <v>0.002404908786491238</v>
+        <v>0.0005582812055043774</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8913675795785263</v>
+        <v>0.08192649123297002</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9309360678587666</v>
+        <v>3.118761749627168</v>
       </c>
       <c r="M14">
-        <v>0.6044708944209845</v>
+        <v>1.722586655656357</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.625830487951987</v>
+        <v>3.951190201954148</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1621992923310245</v>
+        <v>0.5793730959717323</v>
       </c>
       <c r="E15">
-        <v>1.816422853371876</v>
+        <v>7.762780728782161</v>
       </c>
       <c r="F15">
-        <v>3.708005417217777</v>
+        <v>12.80554298914618</v>
       </c>
       <c r="G15">
-        <v>0.002406165632356921</v>
+        <v>0.000562227797917307</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8942596469024036</v>
+        <v>0.08397280923188433</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.923144439151514</v>
+        <v>3.06816230726389</v>
       </c>
       <c r="M15">
-        <v>0.5998536262288781</v>
+        <v>1.697409811102688</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.560248313782722</v>
+        <v>3.65689011314015</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1567218526062391</v>
+        <v>0.5118222360061679</v>
       </c>
       <c r="E16">
-        <v>1.70308817291675</v>
+        <v>7.029128818730868</v>
       </c>
       <c r="F16">
-        <v>3.565295042686074</v>
+        <v>11.44732565799058</v>
       </c>
       <c r="G16">
-        <v>0.002413465045235582</v>
+        <v>0.0005837711705546865</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.911128738372506</v>
+        <v>0.09888813128126905</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8786424492381855</v>
+        <v>2.793692495474204</v>
       </c>
       <c r="M16">
-        <v>0.5734627263884136</v>
+        <v>1.559110082026976</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.520126460301583</v>
+        <v>3.482644138366879</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1534254878657322</v>
+        <v>0.4748573518649977</v>
       </c>
       <c r="E17">
-        <v>1.633637488996044</v>
+        <v>6.614609309454806</v>
       </c>
       <c r="F17">
-        <v>3.478855422149877</v>
+        <v>10.69169009782414</v>
       </c>
       <c r="G17">
-        <v>0.002418029896128213</v>
+        <v>0.0005962523742146102</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9217402898396525</v>
+        <v>0.1104241910404014</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8514716932942008</v>
+        <v>2.63631612831341</v>
       </c>
       <c r="M17">
-        <v>0.5573332132049842</v>
+        <v>1.478537631571029</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.497089802025755</v>
+        <v>3.384280125168686</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1515524496148686</v>
+        <v>0.4548805717454201</v>
       </c>
       <c r="E18">
-        <v>1.593716196198613</v>
+        <v>6.386312272232232</v>
       </c>
       <c r="F18">
-        <v>3.429535888065857</v>
+        <v>10.27944563673861</v>
       </c>
       <c r="G18">
-        <v>0.002420687569351262</v>
+        <v>0.0006032280558535597</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9279399767584646</v>
+        <v>0.1177944636988464</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8358903514469205</v>
+        <v>2.548985141991693</v>
       </c>
       <c r="M18">
-        <v>0.5480777929687548</v>
+        <v>1.433439718164479</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.489296891163008</v>
+        <v>3.35126053571355</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1509221621459318</v>
+        <v>0.4483109763179698</v>
       </c>
       <c r="E19">
-        <v>1.580203510782184</v>
+        <v>6.31053818387818</v>
       </c>
       <c r="F19">
-        <v>3.41290468326747</v>
+        <v>10.14325815076054</v>
       </c>
       <c r="G19">
-        <v>0.002421592938606953</v>
+        <v>0.0006055599239880339</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9300555681574192</v>
+        <v>0.1204054512507753</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8306226673371384</v>
+        <v>2.519900558988894</v>
       </c>
       <c r="M19">
-        <v>0.5449477852791063</v>
+        <v>1.418360118142829</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.524393315184454</v>
+        <v>3.500992050880939</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.153774005152485</v>
+        <v>0.4786527243120133</v>
       </c>
       <c r="E20">
-        <v>1.641027984090584</v>
+        <v>6.657633462519897</v>
       </c>
       <c r="F20">
-        <v>3.48801564551519</v>
+        <v>10.76969886340382</v>
       </c>
       <c r="G20">
-        <v>0.002417540642045981</v>
+        <v>0.0005949459977262062</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9206007061039667</v>
+        <v>0.1091174000259496</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8543592227620422</v>
+        <v>2.652723242056254</v>
       </c>
       <c r="M20">
-        <v>0.559047957983779</v>
+        <v>1.486979767284382</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.642796996083405</v>
+        <v>4.029606172153137</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1636336398364335</v>
+        <v>0.5985900885609965</v>
       </c>
       <c r="E21">
-        <v>1.845709933215034</v>
+        <v>7.966399414493594</v>
       </c>
       <c r="F21">
-        <v>3.745200706959139</v>
+        <v>13.18685640277721</v>
       </c>
       <c r="G21">
-        <v>0.002404307803668551</v>
+        <v>0.0005563656853679877</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8899860025842514</v>
+        <v>0.08100979924121177</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9346750369961967</v>
+        <v>3.143350687979677</v>
       </c>
       <c r="M21">
-        <v>0.6066862304124214</v>
+        <v>1.734784561688173</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.720546893701055</v>
+        <v>4.404717587197183</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1702931151815505</v>
+        <v>0.6990434468843034</v>
       </c>
       <c r="E22">
-        <v>1.97977216266122</v>
+        <v>8.998788874624609</v>
       </c>
       <c r="F22">
-        <v>3.917028883939111</v>
+        <v>15.14578241698791</v>
       </c>
       <c r="G22">
-        <v>0.002395941793718285</v>
+        <v>0.0005273742263409709</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8708431080054151</v>
+        <v>0.07321989000883278</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9876050682991036</v>
+        <v>3.517327575622602</v>
       </c>
       <c r="M22">
-        <v>0.6380230698616742</v>
+        <v>1.91721824335221</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.679016451007897</v>
+        <v>4.200798236298169</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.166718539061236</v>
+        <v>0.6425672920384784</v>
       </c>
       <c r="E23">
-        <v>1.908190601180422</v>
+        <v>8.424686337052265</v>
       </c>
       <c r="F23">
-        <v>3.824968783743714</v>
+        <v>14.05140747005174</v>
       </c>
       <c r="G23">
-        <v>0.002400381213784904</v>
+        <v>0.000543348561173303</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8809803923370367</v>
+        <v>0.07610275177554016</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9593139358477742</v>
+        <v>3.310899550803356</v>
       </c>
       <c r="M23">
-        <v>0.6212790877174683</v>
+        <v>1.817246411607229</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.522464176939536</v>
+        <v>3.492691418937056</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1536163718186003</v>
+        <v>0.4769329475286099</v>
       </c>
       <c r="E24">
-        <v>1.637686720736184</v>
+        <v>6.638151714715832</v>
       </c>
       <c r="F24">
-        <v>3.483873140293156</v>
+        <v>10.73436340940938</v>
       </c>
       <c r="G24">
-        <v>0.00241776173026577</v>
+        <v>0.0005955372181108666</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9211156037561103</v>
+        <v>0.1097059338337054</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8530536479611328</v>
+        <v>2.645295979235954</v>
       </c>
       <c r="M24">
-        <v>0.5582726669740055</v>
+        <v>1.483159338273126</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.35513695581659</v>
+        <v>2.799844627764855</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1403544089792206</v>
+        <v>0.3477104605667876</v>
       </c>
       <c r="E25">
-        <v>1.346818441759183</v>
+        <v>5.101009942250926</v>
       </c>
       <c r="F25">
-        <v>3.131062175588255</v>
+        <v>8.016338881739046</v>
       </c>
       <c r="G25">
-        <v>0.002437738342855809</v>
+        <v>0.0006440089583615706</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9680810758473388</v>
+        <v>0.1740012927669472</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7402010924211311</v>
+        <v>2.049640804164738</v>
       </c>
       <c r="M25">
-        <v>0.4911409602197239</v>
+        <v>1.17049397520681</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.320338207699649</v>
+        <v>0.1766128432563647</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2723746226542403</v>
+        <v>0.06875928688383937</v>
       </c>
       <c r="E2">
-        <v>4.119605357836122</v>
+        <v>0.07832685727402833</v>
       </c>
       <c r="F2">
-        <v>6.364117800098427</v>
+        <v>1.319040040655352</v>
       </c>
       <c r="G2">
-        <v>0.0006772157778200021</v>
+        <v>1.022436245161558</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003560421468811636</v>
       </c>
       <c r="I2">
-        <v>0.2359678766651427</v>
+        <v>0.01503820796290301</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6855876577398448</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4121809718520915</v>
       </c>
       <c r="L2">
-        <v>1.661189450067894</v>
+        <v>0.1079569821780169</v>
       </c>
       <c r="M2">
-        <v>0.9602147143861188</v>
+        <v>2.13362568216354</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5228565557563272</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.006694927070953</v>
+        <v>0.1544835560974889</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2283974755612519</v>
+        <v>0.06097827887729323</v>
       </c>
       <c r="E3">
-        <v>3.505615102000803</v>
+        <v>0.07035786823346868</v>
       </c>
       <c r="F3">
-        <v>5.369812375506143</v>
+        <v>1.240442614762131</v>
       </c>
       <c r="G3">
-        <v>0.0006991689291907672</v>
+        <v>0.9577278842032939</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005984812493035452</v>
       </c>
       <c r="I3">
-        <v>0.2846166674854</v>
+        <v>0.01746445996783441</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6609140386067622</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4201349831478645</v>
       </c>
       <c r="L3">
-        <v>1.415914822766013</v>
+        <v>0.0977124119688888</v>
       </c>
       <c r="M3">
-        <v>0.8249449150139725</v>
+        <v>1.855390144735765</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4556653389540699</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.818014247410048</v>
+        <v>0.1406072867029735</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2038227203669862</v>
+        <v>0.05624258053508413</v>
       </c>
       <c r="E4">
-        <v>3.145295017456419</v>
+        <v>0.06547125453637648</v>
       </c>
       <c r="F4">
-        <v>4.802345466209715</v>
+        <v>1.192955065622513</v>
       </c>
       <c r="G4">
-        <v>0.0007125789691819107</v>
+        <v>0.9187443581262471</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007847055237360262</v>
       </c>
       <c r="I4">
-        <v>0.31722676034091</v>
+        <v>0.0191317079809199</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6462293505936003</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4250497975958911</v>
       </c>
       <c r="L4">
-        <v>1.271432776576887</v>
+        <v>0.09139776219939932</v>
       </c>
       <c r="M4">
-        <v>0.7443647581163191</v>
+        <v>1.685849854321816</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4146714845032093</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.741909608587378</v>
+        <v>0.1342769304882268</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1942999164989203</v>
+        <v>0.05439852726732397</v>
       </c>
       <c r="E5">
-        <v>3.001707260502769</v>
+        <v>0.06347461191544213</v>
       </c>
       <c r="F5">
-        <v>4.579807119650525</v>
+        <v>1.17252843840744</v>
       </c>
       <c r="G5">
-        <v>0.0007180489673895654</v>
+        <v>0.9017748105492416</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00869661982466377</v>
       </c>
       <c r="I5">
-        <v>0.3311405128889362</v>
+        <v>0.01995009612186527</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6397040854932925</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.426388657413808</v>
       </c>
       <c r="L5">
-        <v>1.213781742217833</v>
+        <v>0.08875018606806151</v>
       </c>
       <c r="M5">
-        <v>0.7120252344989879</v>
+        <v>1.619244450623199</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.398462968767241</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.729314841924662</v>
+        <v>0.1324835042539405</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.192745380995234</v>
+        <v>0.05418669155912426</v>
       </c>
       <c r="E6">
-        <v>2.978037040754231</v>
+        <v>0.06313644208085911</v>
       </c>
       <c r="F6">
-        <v>4.543327706874265</v>
+        <v>1.167615624856168</v>
       </c>
       <c r="G6">
-        <v>0.000718958146802515</v>
+        <v>0.897433525866191</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008844529708873061</v>
       </c>
       <c r="I6">
-        <v>0.3334869717857796</v>
+        <v>0.02021275718940885</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6378318935807812</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4257956781740013</v>
       </c>
       <c r="L6">
-        <v>1.20427504295327</v>
+        <v>0.08822911447155946</v>
       </c>
       <c r="M6">
-        <v>0.7066821558986263</v>
+        <v>1.610890087515344</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3963123307655749</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.81698492943076</v>
+        <v>0.1384962542676362</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2036924394924142</v>
+        <v>0.05647433678871749</v>
       </c>
       <c r="E7">
-        <v>3.143346493891698</v>
+        <v>0.06542634491575328</v>
       </c>
       <c r="F7">
-        <v>4.799311427887517</v>
+        <v>1.188499815571333</v>
       </c>
       <c r="G7">
-        <v>0.0007126526917342797</v>
+        <v>0.9143290744708281</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007862059210705291</v>
       </c>
       <c r="I7">
-        <v>0.3174119519427094</v>
+        <v>0.0194643259302234</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6439728799981452</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4228439822404937</v>
       </c>
       <c r="L7">
-        <v>1.270650671777304</v>
+        <v>0.09114073579744542</v>
       </c>
       <c r="M7">
-        <v>0.7439267480268299</v>
+        <v>1.692308380298442</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4159234603404229</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.211253887641476</v>
+        <v>0.1663319065649631</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2566264904882445</v>
+        <v>0.06640867987059096</v>
       </c>
       <c r="E8">
-        <v>3.903793594316454</v>
+        <v>0.07555319236180935</v>
       </c>
       <c r="F8">
-        <v>6.010910339730003</v>
+        <v>1.28625726794705</v>
       </c>
       <c r="G8">
-        <v>0.0006848150656762577</v>
+        <v>0.994436699248908</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004319473441869226</v>
       </c>
       <c r="I8">
-        <v>0.2521307306366651</v>
+        <v>0.01622414904406533</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6741278777405881</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4120187308357739</v>
       </c>
       <c r="L8">
-        <v>1.575137848492034</v>
+        <v>0.1041339118579927</v>
       </c>
       <c r="M8">
-        <v>0.9129753996069923</v>
+        <v>2.047206300592535</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.501590541572611</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.027105428780658</v>
+        <v>0.2222396289685378</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3871978562555256</v>
+        <v>0.08582310236533175</v>
       </c>
       <c r="E9">
-        <v>5.587614373389215</v>
+        <v>0.09556761496687827</v>
       </c>
       <c r="F9">
-        <v>8.86093448999884</v>
+        <v>1.492342769536208</v>
       </c>
       <c r="G9">
-        <v>0.0006282481911819045</v>
+        <v>1.16575263214223</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0005498170037379069</v>
       </c>
       <c r="I9">
-        <v>0.149639957368926</v>
+        <v>0.01085208587772968</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7411723756720789</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3949466852530001</v>
       </c>
       <c r="L9">
-        <v>2.24011043534145</v>
+        <v>0.1299150678997165</v>
       </c>
       <c r="M9">
-        <v>1.271792017996091</v>
+        <v>2.741943885523199</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6693778711042526</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.677054089252067</v>
+        <v>0.2638122973013282</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5162373010768704</v>
+        <v>0.09836524309456962</v>
       </c>
       <c r="E10">
-        <v>7.077988438995163</v>
+        <v>0.1058241979437575</v>
       </c>
       <c r="F10">
-        <v>11.53697492726775</v>
+        <v>1.617728875218631</v>
       </c>
       <c r="G10">
-        <v>0.0005823151566395548</v>
+        <v>1.270934700578096</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002078684691477761</v>
       </c>
       <c r="I10">
-        <v>0.09768059579656807</v>
+        <v>0.00809747337255029</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7803933462145949</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3767001995652279</v>
       </c>
       <c r="L10">
-        <v>2.812137216574939</v>
+        <v>0.1415028482370673</v>
       </c>
       <c r="M10">
-        <v>1.568493581007218</v>
+        <v>3.261249353750998</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7838400291977976</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.993917689065995</v>
+        <v>0.3067385261045388</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5897755366858632</v>
+        <v>0.086289545063444</v>
       </c>
       <c r="E11">
-        <v>7.873265938451453</v>
+        <v>0.07573074111018308</v>
       </c>
       <c r="F11">
-        <v>13.01222440512646</v>
+        <v>1.422471618592738</v>
       </c>
       <c r="G11">
-        <v>0.0005590408559199514</v>
+        <v>1.112186840753182</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01878139266926837</v>
       </c>
       <c r="I11">
-        <v>0.08230387362142366</v>
+        <v>0.007890429730627702</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6945671647395386</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3289541861062091</v>
       </c>
       <c r="L11">
-        <v>3.109015659445021</v>
+        <v>0.09551838060015783</v>
       </c>
       <c r="M11">
-        <v>1.717745192605065</v>
+        <v>3.469509454997706</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7391564731404543</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.11862659117287</v>
+        <v>0.3397132235153748</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6210970208001356</v>
+        <v>0.07402436208160168</v>
       </c>
       <c r="E12">
-        <v>8.20224081367877</v>
+        <v>0.05543069273499412</v>
       </c>
       <c r="F12">
-        <v>13.63070576835923</v>
+        <v>1.247256342461085</v>
       </c>
       <c r="G12">
-        <v>0.0005496367435882695</v>
+        <v>0.9702106663487626</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05742722656693644</v>
       </c>
       <c r="I12">
-        <v>0.07818556688667755</v>
+        <v>0.007713747074252986</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6207016979992517</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3017654511524821</v>
       </c>
       <c r="L12">
-        <v>3.229869965074414</v>
+        <v>0.07160189210480894</v>
       </c>
       <c r="M12">
-        <v>1.777510286879703</v>
+        <v>3.521967870907304</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6764338568469555</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.091516724950566</v>
+        <v>0.363338398077687</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6141622868702825</v>
+        <v>0.06137525350602857</v>
       </c>
       <c r="E13">
-        <v>8.129870010911276</v>
+        <v>0.04148530303111109</v>
       </c>
       <c r="F13">
-        <v>13.49426091656176</v>
+        <v>1.071262528722357</v>
       </c>
       <c r="G13">
-        <v>0.0005516947414030962</v>
+        <v>0.8266149582659352</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131548829095692</v>
       </c>
       <c r="I13">
-        <v>0.07898393643839796</v>
+        <v>0.007967282072913306</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5484308068920853</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2851215912311744</v>
       </c>
       <c r="L13">
-        <v>3.203386367508301</v>
+        <v>0.06280236029797326</v>
       </c>
       <c r="M13">
-        <v>1.764464254791122</v>
+        <v>3.468627139929595</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5990990688967059</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.00406861834648</v>
+        <v>0.3749289457867633</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5922708686527471</v>
+        <v>0.05262679761761291</v>
       </c>
       <c r="E14">
-        <v>7.899676176806281</v>
+        <v>0.03562082138911604</v>
       </c>
       <c r="F14">
-        <v>13.06170775273813</v>
+        <v>0.9491925725066324</v>
       </c>
       <c r="G14">
-        <v>0.0005582812055043774</v>
+        <v>0.7263755067713618</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625328326450699</v>
       </c>
       <c r="I14">
-        <v>0.08192649123297002</v>
+        <v>0.008439443428573945</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4989691537482059</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2786942861252526</v>
       </c>
       <c r="L14">
-        <v>3.118761749627168</v>
+        <v>0.06569338160125682</v>
       </c>
       <c r="M14">
-        <v>1.722586655656357</v>
+        <v>3.385990132876827</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5395824968103184</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.951190201954148</v>
+        <v>0.3743935393963795</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5793730959717323</v>
+        <v>0.05037657074045399</v>
       </c>
       <c r="E15">
-        <v>7.762780728782161</v>
+        <v>0.03461529623962978</v>
       </c>
       <c r="F15">
-        <v>12.80554298914618</v>
+        <v>0.9171333156145067</v>
       </c>
       <c r="G15">
-        <v>0.000562227797917307</v>
+        <v>0.6996342489537284</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750699517497196</v>
       </c>
       <c r="I15">
-        <v>0.08397280923188433</v>
+        <v>0.008790418560906232</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4862771870802618</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2783655195755524</v>
       </c>
       <c r="L15">
-        <v>3.06816230726389</v>
+        <v>0.06739942138428212</v>
       </c>
       <c r="M15">
-        <v>1.697409811102688</v>
+        <v>3.346633851857234</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5224140607244578</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.65689011314015</v>
+        <v>0.349361770468505</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5118222360061679</v>
+        <v>0.04803263253237589</v>
       </c>
       <c r="E16">
-        <v>7.029128818730868</v>
+        <v>0.03350289531809814</v>
       </c>
       <c r="F16">
-        <v>11.44732565799058</v>
+        <v>0.8997267329304606</v>
       </c>
       <c r="G16">
-        <v>0.0005837711705546865</v>
+        <v>0.683369114163483</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1625671163846363</v>
       </c>
       <c r="I16">
-        <v>0.09888813128126905</v>
+        <v>0.01002817870270523</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4836361369612376</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2879364040892478</v>
       </c>
       <c r="L16">
-        <v>2.793692495474204</v>
+        <v>0.06453319914998268</v>
       </c>
       <c r="M16">
-        <v>1.559110082026976</v>
+        <v>3.13824331562995</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.492081001725488</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.482644138366879</v>
+        <v>0.3240032603550418</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4748573518649977</v>
+        <v>0.05074510511462904</v>
       </c>
       <c r="E17">
-        <v>6.614609309454806</v>
+        <v>0.03504227324892861</v>
       </c>
       <c r="F17">
-        <v>10.69169009782414</v>
+        <v>0.9497020579048012</v>
       </c>
       <c r="G17">
-        <v>0.0005962523742146102</v>
+        <v>0.7229578098330336</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1249770935745431</v>
       </c>
       <c r="I17">
-        <v>0.1104241910404014</v>
+        <v>0.01077122438809042</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5073892425075428</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2982053695719316</v>
       </c>
       <c r="L17">
-        <v>2.63631612831341</v>
+        <v>0.05922600868617778</v>
       </c>
       <c r="M17">
-        <v>1.478537631571029</v>
+        <v>3.02305259152422</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.499940911398518</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.384280125168686</v>
+        <v>0.2983494869806407</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4548805717454201</v>
+        <v>0.05848808546382855</v>
       </c>
       <c r="E18">
-        <v>6.386312272232232</v>
+        <v>0.04259808198225912</v>
       </c>
       <c r="F18">
-        <v>10.27944563673861</v>
+        <v>1.071419865599893</v>
       </c>
       <c r="G18">
-        <v>0.0006032280558535597</v>
+        <v>0.8221076027958247</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07216593371510527</v>
       </c>
       <c r="I18">
-        <v>0.1177944636988464</v>
+        <v>0.0107808231493367</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5599528342850135</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3139420968883222</v>
       </c>
       <c r="L18">
-        <v>2.548985141991693</v>
+        <v>0.05945382461203286</v>
       </c>
       <c r="M18">
-        <v>1.433439718164479</v>
+        <v>2.967383603283849</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5415673166854091</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.35126053571355</v>
+        <v>0.2708785206079227</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4483109763179698</v>
+        <v>0.07098343344312497</v>
       </c>
       <c r="E19">
-        <v>6.31053818387818</v>
+        <v>0.0598214868522593</v>
       </c>
       <c r="F19">
-        <v>10.14325815076054</v>
+        <v>1.245187927743672</v>
       </c>
       <c r="G19">
-        <v>0.0006055599239880339</v>
+        <v>0.9633489898849916</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0267148193657718</v>
       </c>
       <c r="I19">
-        <v>0.1204054512507753</v>
+        <v>0.01079051148453924</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6321773314683554</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3356089535041065</v>
       </c>
       <c r="L19">
-        <v>2.519900558988894</v>
+        <v>0.07634839297562834</v>
       </c>
       <c r="M19">
-        <v>1.418360118142829</v>
+        <v>2.97766003680934</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6120808208961535</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.500992050880939</v>
+        <v>0.246619016148216</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4786527243120133</v>
+        <v>0.09577141156122337</v>
       </c>
       <c r="E20">
-        <v>6.657633462519897</v>
+        <v>0.1028675829854357</v>
       </c>
       <c r="F20">
-        <v>10.76969886340382</v>
+        <v>1.570391263183581</v>
       </c>
       <c r="G20">
-        <v>0.0005949459977262062</v>
+        <v>1.229105923899724</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001263714002806005</v>
       </c>
       <c r="I20">
-        <v>0.1091174000259496</v>
+        <v>0.009685516437541786</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7627932223404912</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3749117048866815</v>
       </c>
       <c r="L20">
-        <v>2.652723242056254</v>
+        <v>0.1374544275504306</v>
       </c>
       <c r="M20">
-        <v>1.486979767284382</v>
+        <v>3.147489971414529</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7578551071672166</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.029606172153137</v>
+        <v>0.2747038130819135</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5985900885609965</v>
+        <v>0.1087480355480039</v>
       </c>
       <c r="E21">
-        <v>7.966399414493594</v>
+        <v>0.1179900918231347</v>
       </c>
       <c r="F21">
-        <v>13.18685640277721</v>
+        <v>1.716943893269828</v>
       </c>
       <c r="G21">
-        <v>0.0005563656853679877</v>
+        <v>1.351763674138567</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0004230153916355839</v>
       </c>
       <c r="I21">
-        <v>0.08100979924121177</v>
+        <v>0.007626066543975796</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8140422603393063</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3698494466883488</v>
       </c>
       <c r="L21">
-        <v>3.143350687979677</v>
+        <v>0.1578790888570012</v>
       </c>
       <c r="M21">
-        <v>1.734784561688173</v>
+        <v>3.552461838323097</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8634554810265627</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.404717587197183</v>
+        <v>0.2969782866867376</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6990434468843034</v>
+        <v>0.1158623888829311</v>
       </c>
       <c r="E22">
-        <v>8.998788874624609</v>
+        <v>0.1256141139799638</v>
       </c>
       <c r="F22">
-        <v>15.14578241698791</v>
+        <v>1.804534969043203</v>
       </c>
       <c r="G22">
-        <v>0.0005273742263409709</v>
+        <v>1.426495994327297</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001215361846521157</v>
       </c>
       <c r="I22">
-        <v>0.07321989000883278</v>
+        <v>0.006152132865119064</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8449109401081216</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3667963559601972</v>
       </c>
       <c r="L22">
-        <v>3.517327575622602</v>
+        <v>0.1678658234036803</v>
       </c>
       <c r="M22">
-        <v>1.91721824335221</v>
+        <v>3.807582746189155</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.925159766390891</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.200798236298169</v>
+        <v>0.287570046702271</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6425672920384784</v>
+        <v>0.1117434732604607</v>
       </c>
       <c r="E23">
-        <v>8.424686337052265</v>
+        <v>0.1215586845010925</v>
       </c>
       <c r="F23">
-        <v>14.05140747005174</v>
+        <v>1.762498551000121</v>
       </c>
       <c r="G23">
-        <v>0.000543348561173303</v>
+        <v>1.391327889712244</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0007436558071280963</v>
       </c>
       <c r="I23">
-        <v>0.07610275177554016</v>
+        <v>0.006569292115938374</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8308499980693966</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3708248371286231</v>
       </c>
       <c r="L23">
-        <v>3.310899550803356</v>
+        <v>0.1627964052630162</v>
       </c>
       <c r="M23">
-        <v>1.817246411607229</v>
+        <v>3.662209274593238</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8903826691430297</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.492691418937056</v>
+        <v>0.2475344134854254</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4769329475286099</v>
+        <v>0.09681943839921558</v>
       </c>
       <c r="E24">
-        <v>6.638151714715832</v>
+        <v>0.1063122703320936</v>
       </c>
       <c r="F24">
-        <v>10.73436340940938</v>
+        <v>1.598690253665296</v>
       </c>
       <c r="G24">
-        <v>0.0005955372181108666</v>
+        <v>1.253514827563151</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.920205165819368E-06</v>
       </c>
       <c r="I24">
-        <v>0.1097059338337054</v>
+        <v>0.009108186588240308</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.775283869967808</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3824598995617094</v>
       </c>
       <c r="L24">
-        <v>2.645295979235954</v>
+        <v>0.143314955629144</v>
       </c>
       <c r="M24">
-        <v>1.483159338273126</v>
+        <v>3.131014853998522</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.762582370386589</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.799844627764855</v>
+        <v>0.2036452302740344</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3477104605667876</v>
+        <v>0.08099109158806073</v>
       </c>
       <c r="E25">
-        <v>5.101009942250926</v>
+        <v>0.09009693142077424</v>
       </c>
       <c r="F25">
-        <v>8.016338881739046</v>
+        <v>1.428235791489328</v>
       </c>
       <c r="G25">
-        <v>0.0006440089583615706</v>
+        <v>1.11105558886446</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001199537421940899</v>
       </c>
       <c r="I25">
-        <v>0.1740012927669472</v>
+        <v>0.01266760614334217</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7186844751323918</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3956987396440468</v>
       </c>
       <c r="L25">
-        <v>2.049640804164738</v>
+        <v>0.1225314785813865</v>
       </c>
       <c r="M25">
-        <v>1.17049397520681</v>
+        <v>2.565982749729244</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.6263756912617211</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1766128432563647</v>
+        <v>0.1711024633438996</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06875928688383937</v>
+        <v>0.07182879287888966</v>
       </c>
       <c r="E2">
-        <v>0.07832685727402833</v>
+        <v>0.0785556932471394</v>
       </c>
       <c r="F2">
-        <v>1.319040040655352</v>
+        <v>1.272909959508993</v>
       </c>
       <c r="G2">
-        <v>1.022436245161558</v>
+        <v>0.9594930759213582</v>
       </c>
       <c r="H2">
-        <v>0.003560421468811636</v>
+        <v>0.003179436135960501</v>
       </c>
       <c r="I2">
-        <v>0.01503820796290301</v>
+        <v>0.009060890661227283</v>
       </c>
       <c r="J2">
-        <v>0.6855876577398448</v>
+        <v>0.6877346268957041</v>
       </c>
       <c r="K2">
-        <v>0.4121809718520915</v>
+        <v>0.3450038330884588</v>
       </c>
       <c r="L2">
-        <v>0.1079569821780169</v>
+        <v>0.1508151790071004</v>
       </c>
       <c r="M2">
-        <v>2.13362568216354</v>
+        <v>0.1103614800642303</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1060006450045563</v>
       </c>
       <c r="O2">
-        <v>0.5228565557563272</v>
+        <v>2.196186207597805</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5383365321182154</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1544835560974889</v>
+        <v>0.1547829633049105</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06097827887729323</v>
+        <v>0.06354070576615101</v>
       </c>
       <c r="E3">
-        <v>0.07035786823346868</v>
+        <v>0.07079997233408264</v>
       </c>
       <c r="F3">
-        <v>1.240442614762131</v>
+        <v>1.202577044549102</v>
       </c>
       <c r="G3">
-        <v>0.9577278842032939</v>
+        <v>0.9060417187321974</v>
       </c>
       <c r="H3">
-        <v>0.005984812493035452</v>
+        <v>0.005398100237304582</v>
       </c>
       <c r="I3">
-        <v>0.01746445996783441</v>
+        <v>0.01058882115684412</v>
       </c>
       <c r="J3">
-        <v>0.6609140386067622</v>
+        <v>0.6613563798122613</v>
       </c>
       <c r="K3">
-        <v>0.4201349831478645</v>
+        <v>0.3545559538262886</v>
       </c>
       <c r="L3">
-        <v>0.0977124119688888</v>
+        <v>0.1566491681080251</v>
       </c>
       <c r="M3">
-        <v>1.855390144735765</v>
+        <v>0.1134368284466438</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.096506431231834</v>
       </c>
       <c r="O3">
-        <v>0.4556653389540699</v>
+        <v>1.900092663859141</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4674599692164207</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1406072867029735</v>
+        <v>0.1444430523728784</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05624258053508413</v>
+        <v>0.05850083320949295</v>
       </c>
       <c r="E4">
-        <v>0.06547125453637648</v>
+        <v>0.06604028304640863</v>
       </c>
       <c r="F4">
-        <v>1.192955065622513</v>
+        <v>1.159994673562494</v>
       </c>
       <c r="G4">
-        <v>0.9187443581262471</v>
+        <v>0.8740692738177103</v>
       </c>
       <c r="H4">
-        <v>0.007847055237360262</v>
+        <v>0.007108425072533231</v>
       </c>
       <c r="I4">
-        <v>0.0191317079809199</v>
+        <v>0.01166070592679747</v>
       </c>
       <c r="J4">
-        <v>0.6462293505936003</v>
+        <v>0.645238752411089</v>
       </c>
       <c r="K4">
-        <v>0.4250497975958911</v>
+        <v>0.3604475909091054</v>
       </c>
       <c r="L4">
-        <v>0.09139776219939932</v>
+        <v>0.1604137754843205</v>
       </c>
       <c r="M4">
-        <v>1.685849854321816</v>
+        <v>0.1156671721826621</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09064164132221819</v>
       </c>
       <c r="O4">
-        <v>0.4146714845032093</v>
+        <v>1.719794812955399</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4242447303802521</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1342769304882268</v>
+        <v>0.1396480652750682</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05439852726732397</v>
+        <v>0.05652472146370258</v>
       </c>
       <c r="E5">
-        <v>0.06347461191544213</v>
+        <v>0.06409537048320324</v>
       </c>
       <c r="F5">
-        <v>1.17252843840744</v>
+        <v>1.141719658153789</v>
       </c>
       <c r="G5">
-        <v>0.9017748105492416</v>
+        <v>0.8601833240311265</v>
       </c>
       <c r="H5">
-        <v>0.00869661982466377</v>
+        <v>0.007889724963971362</v>
       </c>
       <c r="I5">
-        <v>0.01995009612186527</v>
+        <v>0.01223306664846113</v>
       </c>
       <c r="J5">
-        <v>0.6397040854932925</v>
+        <v>0.6381287317393713</v>
       </c>
       <c r="K5">
-        <v>0.426388657413808</v>
+        <v>0.3623452040260329</v>
       </c>
       <c r="L5">
-        <v>0.08875018606806151</v>
+        <v>0.1617114116118206</v>
       </c>
       <c r="M5">
-        <v>1.619244450623199</v>
+        <v>0.1165620761148656</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08818501806232248</v>
       </c>
       <c r="O5">
-        <v>0.398462968767241</v>
+        <v>1.648573536306316</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4070828271113598</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1324835042539405</v>
+        <v>0.1382348881450355</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05418669155912426</v>
+        <v>0.05627879561635041</v>
       </c>
       <c r="E6">
-        <v>0.06313644208085911</v>
+        <v>0.06376679099260762</v>
       </c>
       <c r="F6">
-        <v>1.167615624856168</v>
+        <v>1.137399024980866</v>
       </c>
       <c r="G6">
-        <v>0.897433525866191</v>
+        <v>0.8566049570084147</v>
       </c>
       <c r="H6">
-        <v>0.008844529708873061</v>
+        <v>0.008025632428792007</v>
       </c>
       <c r="I6">
-        <v>0.02021275718940885</v>
+        <v>0.01246465618872694</v>
       </c>
       <c r="J6">
-        <v>0.6378318935807812</v>
+        <v>0.6362671786147587</v>
       </c>
       <c r="K6">
-        <v>0.4257956781740013</v>
+        <v>0.3620427326461364</v>
       </c>
       <c r="L6">
-        <v>0.08822911447155946</v>
+        <v>0.161588022760446</v>
       </c>
       <c r="M6">
-        <v>1.610890087515344</v>
+        <v>0.116593666750318</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08770789771720189</v>
       </c>
       <c r="O6">
-        <v>0.3963123307655749</v>
+        <v>1.639104169923172</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4047022320224869</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1384962542676362</v>
+        <v>0.143162173581544</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05647433678871749</v>
+        <v>0.05895680808889381</v>
       </c>
       <c r="E7">
-        <v>0.06542634491575328</v>
+        <v>0.06606561061023797</v>
       </c>
       <c r="F7">
-        <v>1.188499815571333</v>
+        <v>1.153368380580332</v>
       </c>
       <c r="G7">
-        <v>0.9143290744708281</v>
+        <v>0.8733421306588838</v>
       </c>
       <c r="H7">
-        <v>0.007862059210705291</v>
+        <v>0.007131963237572869</v>
       </c>
       <c r="I7">
-        <v>0.0194643259302234</v>
+        <v>0.01202216072321871</v>
       </c>
       <c r="J7">
-        <v>0.6439728799981452</v>
+        <v>0.6355505825960961</v>
       </c>
       <c r="K7">
-        <v>0.4228439822404937</v>
+        <v>0.3583654892320318</v>
       </c>
       <c r="L7">
-        <v>0.09114073579744542</v>
+        <v>0.1593061189876046</v>
       </c>
       <c r="M7">
-        <v>1.692308380298442</v>
+        <v>0.1152221128263817</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09036914642523897</v>
       </c>
       <c r="O7">
-        <v>0.4159234603404229</v>
+        <v>1.723229661778873</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4250783309501287</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1663319065649631</v>
+        <v>0.1648556114526798</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06640867987059096</v>
+        <v>0.07013414940107054</v>
       </c>
       <c r="E8">
-        <v>0.07555319236180935</v>
+        <v>0.07608609298767277</v>
       </c>
       <c r="F8">
-        <v>1.28625726794705</v>
+        <v>1.234448573571811</v>
       </c>
       <c r="G8">
-        <v>0.994436699248908</v>
+        <v>0.9462241286803987</v>
       </c>
       <c r="H8">
-        <v>0.004319473441869226</v>
+        <v>0.003895730363884908</v>
       </c>
       <c r="I8">
-        <v>0.01622414904406533</v>
+        <v>0.009997011368633402</v>
       </c>
       <c r="J8">
-        <v>0.6741278777405881</v>
+        <v>0.6507557919569535</v>
       </c>
       <c r="K8">
-        <v>0.4120187308357739</v>
+        <v>0.3448195151515083</v>
       </c>
       <c r="L8">
-        <v>0.1041339118579927</v>
+        <v>0.1511276983933545</v>
       </c>
       <c r="M8">
-        <v>2.047206300592535</v>
+        <v>0.1104061975517645</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1023140723778475</v>
       </c>
       <c r="O8">
-        <v>0.501590541572611</v>
+        <v>2.095549356042255</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5148260488486329</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2222396289685378</v>
+        <v>0.2061657160289627</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08582310236533175</v>
+        <v>0.09114973774818225</v>
       </c>
       <c r="E9">
-        <v>0.09556761496687827</v>
+        <v>0.09560360446220884</v>
       </c>
       <c r="F9">
-        <v>1.492342769536208</v>
+        <v>1.415559940290166</v>
       </c>
       <c r="G9">
-        <v>1.16575263214223</v>
+        <v>1.092221542603198</v>
       </c>
       <c r="H9">
-        <v>0.0005498170037379069</v>
+        <v>0.0004684893296531545</v>
       </c>
       <c r="I9">
-        <v>0.01085208587772968</v>
+        <v>0.006576509210963977</v>
       </c>
       <c r="J9">
-        <v>0.7411723756720789</v>
+        <v>0.7122607573873125</v>
       </c>
       <c r="K9">
-        <v>0.3949466852530001</v>
+        <v>0.3228800945622172</v>
       </c>
       <c r="L9">
-        <v>0.1299150678997165</v>
+        <v>0.1387067389277021</v>
       </c>
       <c r="M9">
-        <v>2.741943885523199</v>
+        <v>0.1048026384531919</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1260659116368146</v>
       </c>
       <c r="O9">
-        <v>0.6693778711042526</v>
+        <v>2.834900067702165</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6920267307260985</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2638122973013282</v>
+        <v>0.240690648015871</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09836524309456962</v>
+        <v>0.106251385031392</v>
       </c>
       <c r="E10">
-        <v>0.1058241979437575</v>
+        <v>0.1058751418637449</v>
       </c>
       <c r="F10">
-        <v>1.617728875218631</v>
+        <v>1.50862800708768</v>
       </c>
       <c r="G10">
-        <v>1.270934700578096</v>
+        <v>1.200696139905631</v>
       </c>
       <c r="H10">
-        <v>0.0002078684691477761</v>
+        <v>0.000212427995257336</v>
       </c>
       <c r="I10">
-        <v>0.00809747337255029</v>
+        <v>0.005024014146759903</v>
       </c>
       <c r="J10">
-        <v>0.7803933462145949</v>
+        <v>0.703848297281823</v>
       </c>
       <c r="K10">
-        <v>0.3767001995652279</v>
+        <v>0.3014479919876525</v>
       </c>
       <c r="L10">
-        <v>0.1415028482370673</v>
+        <v>0.1286823134939121</v>
       </c>
       <c r="M10">
-        <v>3.261249353750998</v>
+        <v>0.1000017980021948</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1361120636621962</v>
       </c>
       <c r="O10">
-        <v>0.7838400291977976</v>
+        <v>3.370782782461333</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8111577174611995</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3067385261045388</v>
+        <v>0.2940924727595586</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.086289545063444</v>
+        <v>0.09577656399507362</v>
       </c>
       <c r="E11">
-        <v>0.07573074111018308</v>
+        <v>0.07619645421130983</v>
       </c>
       <c r="F11">
-        <v>1.422471618592738</v>
+        <v>1.301055628102674</v>
       </c>
       <c r="G11">
-        <v>1.112186840753182</v>
+        <v>1.096078901710754</v>
       </c>
       <c r="H11">
-        <v>0.01878139266926837</v>
+        <v>0.01877784131957583</v>
       </c>
       <c r="I11">
-        <v>0.007890429730627702</v>
+        <v>0.005258928087238601</v>
       </c>
       <c r="J11">
-        <v>0.6945671647395386</v>
+        <v>0.5520560900631466</v>
       </c>
       <c r="K11">
-        <v>0.3289541861062091</v>
+        <v>0.2672484480758257</v>
       </c>
       <c r="L11">
-        <v>0.09551838060015783</v>
+        <v>0.1170503833635483</v>
       </c>
       <c r="M11">
-        <v>3.469509454997706</v>
+        <v>0.08700538185509465</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09147583923188662</v>
       </c>
       <c r="O11">
-        <v>0.7391564731404543</v>
+        <v>3.527923130702845</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7577946438353536</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3397132235153748</v>
+        <v>0.3365460715888844</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07402436208160168</v>
+        <v>0.08319972592062186</v>
       </c>
       <c r="E12">
-        <v>0.05543069273499412</v>
+        <v>0.05573833653951965</v>
       </c>
       <c r="F12">
-        <v>1.247256342461085</v>
+        <v>1.132122347259156</v>
       </c>
       <c r="G12">
-        <v>0.9702106663487626</v>
+        <v>0.9827655123727794</v>
       </c>
       <c r="H12">
-        <v>0.05742722656693644</v>
+        <v>0.05742416096975234</v>
       </c>
       <c r="I12">
-        <v>0.007713747074252986</v>
+        <v>0.005160767578384018</v>
       </c>
       <c r="J12">
-        <v>0.6207016979992517</v>
+        <v>0.4648650077550371</v>
       </c>
       <c r="K12">
-        <v>0.3017654511524821</v>
+        <v>0.2507015906933354</v>
       </c>
       <c r="L12">
-        <v>0.07160189210480894</v>
+        <v>0.1123644694484992</v>
       </c>
       <c r="M12">
-        <v>3.521967870907304</v>
+        <v>0.07971563969167317</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06882844288273837</v>
       </c>
       <c r="O12">
-        <v>0.6764338568469555</v>
+        <v>3.542076017603961</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6883719129519861</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.363338398077687</v>
+        <v>0.3680667288010966</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06137525350602857</v>
+        <v>0.06846661279590194</v>
       </c>
       <c r="E13">
-        <v>0.04148530303111109</v>
+        <v>0.0413617751174078</v>
       </c>
       <c r="F13">
-        <v>1.071262528722357</v>
+        <v>0.9809139780307703</v>
       </c>
       <c r="G13">
-        <v>0.8266149582659352</v>
+        <v>0.8458669306137523</v>
       </c>
       <c r="H13">
-        <v>0.1131548829095692</v>
+        <v>0.1131573286980228</v>
       </c>
       <c r="I13">
-        <v>0.007967282072913306</v>
+        <v>0.005283751016055049</v>
       </c>
       <c r="J13">
-        <v>0.5484308068920853</v>
+        <v>0.4214297792439226</v>
       </c>
       <c r="K13">
-        <v>0.2851215912311744</v>
+        <v>0.2433093535398483</v>
       </c>
       <c r="L13">
-        <v>0.06280236029797326</v>
+        <v>0.1107005376256553</v>
       </c>
       <c r="M13">
-        <v>3.468627139929595</v>
+        <v>0.07568920791855627</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06121545233668257</v>
       </c>
       <c r="O13">
-        <v>0.5990990688967059</v>
+        <v>3.462580209772852</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6056456716676877</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3749289457867633</v>
+        <v>0.3845011905258957</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05262679761761291</v>
+        <v>0.05774630019860183</v>
       </c>
       <c r="E14">
-        <v>0.03562082138911604</v>
+        <v>0.03522346351215377</v>
       </c>
       <c r="F14">
-        <v>0.9491925725066324</v>
+        <v>0.8822659749268951</v>
       </c>
       <c r="G14">
-        <v>0.7263755067713618</v>
+        <v>0.7422513204873269</v>
       </c>
       <c r="H14">
-        <v>0.1625328326450699</v>
+        <v>0.1625330175353241</v>
       </c>
       <c r="I14">
-        <v>0.008439443428573945</v>
+        <v>0.005580857276073381</v>
       </c>
       <c r="J14">
-        <v>0.4989691537482059</v>
+        <v>0.4061452280975288</v>
       </c>
       <c r="K14">
-        <v>0.2786942861252526</v>
+        <v>0.2418530505525883</v>
       </c>
       <c r="L14">
-        <v>0.06569338160125682</v>
+        <v>0.1105379164735578</v>
       </c>
       <c r="M14">
-        <v>3.385990132876827</v>
+        <v>0.07440086426203818</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06472579075637341</v>
       </c>
       <c r="O14">
-        <v>0.5395824968103184</v>
+        <v>3.36657333954804</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5428937680998445</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3743935393963795</v>
+        <v>0.384800602134419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05037657074045399</v>
+        <v>0.05478577974876941</v>
       </c>
       <c r="E15">
-        <v>0.03461529623962978</v>
+        <v>0.03418074317269149</v>
       </c>
       <c r="F15">
-        <v>0.9171333156145067</v>
+        <v>0.8588505456455664</v>
       </c>
       <c r="G15">
-        <v>0.6996342489537284</v>
+        <v>0.7118656595874597</v>
       </c>
       <c r="H15">
-        <v>0.1750699517497196</v>
+        <v>0.1750660863390863</v>
       </c>
       <c r="I15">
-        <v>0.008790418560906232</v>
+        <v>0.005859567752796835</v>
       </c>
       <c r="J15">
-        <v>0.4862771870802618</v>
+        <v>0.4079496166792467</v>
       </c>
       <c r="K15">
-        <v>0.2783655195755524</v>
+        <v>0.2425115121851931</v>
       </c>
       <c r="L15">
-        <v>0.06739942138428212</v>
+        <v>0.1107067402130242</v>
       </c>
       <c r="M15">
-        <v>3.346633851857234</v>
+        <v>0.07452461663522469</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0665659397824605</v>
       </c>
       <c r="O15">
-        <v>0.5224140607244578</v>
+        <v>3.325770102054719</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.525027005617865</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.349361770468505</v>
+        <v>0.3558075142286015</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04803263253237589</v>
+        <v>0.05036092805457315</v>
       </c>
       <c r="E16">
-        <v>0.03350289531809814</v>
+        <v>0.03323455479459425</v>
       </c>
       <c r="F16">
-        <v>0.8997267329304606</v>
+        <v>0.8667258752019293</v>
       </c>
       <c r="G16">
-        <v>0.683369114163483</v>
+        <v>0.6718653982162266</v>
       </c>
       <c r="H16">
-        <v>0.1625671163846363</v>
+        <v>0.1625193905753974</v>
       </c>
       <c r="I16">
-        <v>0.01002817870270523</v>
+        <v>0.006639243321848731</v>
       </c>
       <c r="J16">
-        <v>0.4836361369612376</v>
+        <v>0.4605263439360812</v>
       </c>
       <c r="K16">
-        <v>0.2879364040892478</v>
+        <v>0.2511974236241376</v>
       </c>
       <c r="L16">
-        <v>0.06453319914998268</v>
+        <v>0.1124881955342658</v>
       </c>
       <c r="M16">
-        <v>3.13824331562995</v>
+        <v>0.07829737330554298</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06396311785684716</v>
       </c>
       <c r="O16">
-        <v>0.492081001725488</v>
+        <v>3.135234243472098</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4956127382747866</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3240032603550418</v>
+        <v>0.3260298528113594</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05074510511462904</v>
+        <v>0.05254894449406322</v>
       </c>
       <c r="E17">
-        <v>0.03504227324892861</v>
+        <v>0.0348862301841546</v>
       </c>
       <c r="F17">
-        <v>0.9497020579048012</v>
+        <v>0.9226742287114291</v>
       </c>
       <c r="G17">
-        <v>0.7229578098330336</v>
+        <v>0.6974803339279276</v>
       </c>
       <c r="H17">
-        <v>0.1249770935745431</v>
+        <v>0.1248922686790195</v>
       </c>
       <c r="I17">
-        <v>0.01077122438809042</v>
+        <v>0.007121213680668426</v>
       </c>
       <c r="J17">
-        <v>0.5073892425075428</v>
+        <v>0.5063340718853908</v>
       </c>
       <c r="K17">
-        <v>0.2982053695719316</v>
+        <v>0.259109920905723</v>
       </c>
       <c r="L17">
-        <v>0.05922600868617778</v>
+        <v>0.1145844116148401</v>
       </c>
       <c r="M17">
-        <v>3.02305259152422</v>
+        <v>0.08168866239952233</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05868250972106637</v>
       </c>
       <c r="O17">
-        <v>0.499940911398518</v>
+        <v>3.037278238971339</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5055853027818245</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2983494869806407</v>
+        <v>0.2938164196911686</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05848808546382855</v>
+        <v>0.06063646301910808</v>
       </c>
       <c r="E18">
-        <v>0.04259808198225912</v>
+        <v>0.04246867742601612</v>
       </c>
       <c r="F18">
-        <v>1.071419865599893</v>
+        <v>1.038231758386146</v>
       </c>
       <c r="G18">
-        <v>0.8221076027958247</v>
+        <v>0.7818868429379648</v>
       </c>
       <c r="H18">
-        <v>0.07216593371510527</v>
+        <v>0.0720701610231913</v>
       </c>
       <c r="I18">
-        <v>0.0107808231493367</v>
+        <v>0.006986890363902987</v>
       </c>
       <c r="J18">
-        <v>0.5599528342850135</v>
+        <v>0.5645246484633901</v>
       </c>
       <c r="K18">
-        <v>0.3139420968883222</v>
+        <v>0.2697833293629479</v>
       </c>
       <c r="L18">
-        <v>0.05945382461203286</v>
+        <v>0.1181213705449644</v>
       </c>
       <c r="M18">
-        <v>2.967383603283849</v>
+        <v>0.08596686508783691</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0585734891276406</v>
       </c>
       <c r="O18">
-        <v>0.5415673166854091</v>
+        <v>3.005930198345141</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5513940127898636</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2708785206079227</v>
+        <v>0.2593401661400776</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07098343344312497</v>
+        <v>0.07408340353570964</v>
       </c>
       <c r="E19">
-        <v>0.0598214868522593</v>
+        <v>0.05964795964709069</v>
       </c>
       <c r="F19">
-        <v>1.245187927743672</v>
+        <v>1.197743612950319</v>
       </c>
       <c r="G19">
-        <v>0.9633489898849916</v>
+        <v>0.9062398711820663</v>
       </c>
       <c r="H19">
-        <v>0.0267148193657718</v>
+        <v>0.02663934283042124</v>
       </c>
       <c r="I19">
-        <v>0.01079051148453924</v>
+        <v>0.007064361583815071</v>
       </c>
       <c r="J19">
-        <v>0.6321773314683554</v>
+        <v>0.6328158639176138</v>
       </c>
       <c r="K19">
-        <v>0.3356089535041065</v>
+        <v>0.2833227925082964</v>
       </c>
       <c r="L19">
-        <v>0.07634839297562834</v>
+        <v>0.1229902481848812</v>
       </c>
       <c r="M19">
-        <v>2.97766003680934</v>
+        <v>0.09121729714667115</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0745276550254772</v>
       </c>
       <c r="O19">
-        <v>0.6120808208961535</v>
+        <v>3.044374489811275</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6276600718960808</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.246619016148216</v>
+        <v>0.2249936595602122</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09577141156122337</v>
+        <v>0.1019013694417339</v>
       </c>
       <c r="E20">
-        <v>0.1028675829854357</v>
+        <v>0.1026793118494993</v>
       </c>
       <c r="F20">
-        <v>1.570391263183581</v>
+        <v>1.482284147485714</v>
       </c>
       <c r="G20">
-        <v>1.229105923899724</v>
+        <v>1.149225678014503</v>
       </c>
       <c r="H20">
-        <v>0.0001263714002806005</v>
+        <v>0.000121607939473467</v>
       </c>
       <c r="I20">
-        <v>0.009685516437541786</v>
+        <v>0.006431931115551848</v>
       </c>
       <c r="J20">
-        <v>0.7627932223404912</v>
+        <v>0.7266372171582418</v>
       </c>
       <c r="K20">
-        <v>0.3749117048866815</v>
+        <v>0.3040251930350877</v>
       </c>
       <c r="L20">
-        <v>0.1374544275504306</v>
+        <v>0.1301117797311058</v>
       </c>
       <c r="M20">
-        <v>3.147489971414529</v>
+        <v>0.1000098946792622</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1327769564230081</v>
       </c>
       <c r="O20">
-        <v>0.7578551071672166</v>
+        <v>3.25721602255345</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7840961898780066</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2747038130819135</v>
+        <v>0.2551209950722892</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1087480355480039</v>
+        <v>0.1226533160848078</v>
       </c>
       <c r="E21">
-        <v>0.1179900918231347</v>
+        <v>0.1191923235650023</v>
       </c>
       <c r="F21">
-        <v>1.716943893269828</v>
+        <v>1.544893723145748</v>
       </c>
       <c r="G21">
-        <v>1.351763674138567</v>
+        <v>1.330214138523871</v>
       </c>
       <c r="H21">
-        <v>0.0004230153916355839</v>
+        <v>0.0003867730590672025</v>
       </c>
       <c r="I21">
-        <v>0.007626066543975796</v>
+        <v>0.005257357575739974</v>
       </c>
       <c r="J21">
-        <v>0.8140422603393063</v>
+        <v>0.6066731650694521</v>
       </c>
       <c r="K21">
-        <v>0.3698494466883488</v>
+        <v>0.2868966247706197</v>
       </c>
       <c r="L21">
-        <v>0.1578790888570012</v>
+        <v>0.1229505358657601</v>
       </c>
       <c r="M21">
-        <v>3.552461838323097</v>
+        <v>0.09604088008873646</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1505571817972182</v>
       </c>
       <c r="O21">
-        <v>0.8634554810265627</v>
+        <v>3.640891158452064</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8906431616370654</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2969782866867376</v>
+        <v>0.279683683168173</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1158623888829311</v>
+        <v>0.135488717797557</v>
       </c>
       <c r="E22">
-        <v>0.1256141139799638</v>
+        <v>0.1279061130999857</v>
       </c>
       <c r="F22">
-        <v>1.804534969043203</v>
+        <v>1.573271521491634</v>
       </c>
       <c r="G22">
-        <v>1.426495994327297</v>
+        <v>1.451841669244658</v>
       </c>
       <c r="H22">
-        <v>0.001215361846521157</v>
+        <v>0.001071506792583943</v>
       </c>
       <c r="I22">
-        <v>0.006152132865119064</v>
+        <v>0.004230519788881004</v>
       </c>
       <c r="J22">
-        <v>0.8449109401081216</v>
+        <v>0.5263290229044486</v>
       </c>
       <c r="K22">
-        <v>0.3667963559601972</v>
+        <v>0.2757442468605582</v>
       </c>
       <c r="L22">
-        <v>0.1678658234036803</v>
+        <v>0.1186863727192868</v>
       </c>
       <c r="M22">
-        <v>3.807582746189155</v>
+        <v>0.09349569376548494</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1588273841151064</v>
       </c>
       <c r="O22">
-        <v>0.925159766390891</v>
+        <v>3.877169624803798</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9522611129872303</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.287570046702271</v>
+        <v>0.2672768084915731</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1117434732604607</v>
+        <v>0.127532157324822</v>
       </c>
       <c r="E23">
-        <v>0.1215586845010925</v>
+        <v>0.1230558354833278</v>
       </c>
       <c r="F23">
-        <v>1.762498551000121</v>
+        <v>1.56937972786919</v>
       </c>
       <c r="G23">
-        <v>1.391327889712244</v>
+        <v>1.38187381907062</v>
       </c>
       <c r="H23">
-        <v>0.0007436558071280963</v>
+        <v>0.000670643224992995</v>
       </c>
       <c r="I23">
-        <v>0.006569292115938374</v>
+        <v>0.00435754088043705</v>
       </c>
       <c r="J23">
-        <v>0.8308499980693966</v>
+        <v>0.5861449234715366</v>
       </c>
       <c r="K23">
-        <v>0.3708248371286231</v>
+        <v>0.2838905678197339</v>
       </c>
       <c r="L23">
-        <v>0.1627964052630162</v>
+        <v>0.1215734321822337</v>
       </c>
       <c r="M23">
-        <v>3.662209274593238</v>
+        <v>0.09585322721618361</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1547565239079063</v>
       </c>
       <c r="O23">
-        <v>0.8903826691430297</v>
+        <v>3.748820726252802</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9183853312272063</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2475344134854254</v>
+        <v>0.2245860711762049</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09681943839921558</v>
+        <v>0.1031058837374275</v>
       </c>
       <c r="E24">
-        <v>0.1063122703320936</v>
+        <v>0.1061023942747568</v>
       </c>
       <c r="F24">
-        <v>1.598690253665296</v>
+        <v>1.507739275469376</v>
       </c>
       <c r="G24">
-        <v>1.253514827563151</v>
+        <v>1.169740650416642</v>
       </c>
       <c r="H24">
-        <v>3.920205165819368E-06</v>
+        <v>9.485230738626171E-07</v>
       </c>
       <c r="I24">
-        <v>0.009108186588240308</v>
+        <v>0.005772782019687561</v>
       </c>
       <c r="J24">
-        <v>0.775283869967808</v>
+        <v>0.7387673213414416</v>
       </c>
       <c r="K24">
-        <v>0.3824598995617094</v>
+        <v>0.3088710403268085</v>
       </c>
       <c r="L24">
-        <v>0.143314955629144</v>
+        <v>0.1318495595166649</v>
       </c>
       <c r="M24">
-        <v>3.131014853998522</v>
+        <v>0.1018945117420813</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1383730248979305</v>
       </c>
       <c r="O24">
-        <v>0.762582370386589</v>
+        <v>3.245554697118109</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7899068983571738</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2036452302740344</v>
+        <v>0.1916060207132659</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08099109158806073</v>
+        <v>0.0854398333360038</v>
       </c>
       <c r="E25">
-        <v>0.09009693142077424</v>
+        <v>0.09017945991627485</v>
       </c>
       <c r="F25">
-        <v>1.428235791489328</v>
+        <v>1.363678844730501</v>
       </c>
       <c r="G25">
-        <v>1.11105558886446</v>
+        <v>1.041223569121996</v>
       </c>
       <c r="H25">
-        <v>0.001199537421940899</v>
+        <v>0.001046443900279304</v>
       </c>
       <c r="I25">
-        <v>0.01266760614334217</v>
+        <v>0.007962563409120271</v>
       </c>
       <c r="J25">
-        <v>0.7186844751323918</v>
+        <v>0.7031426523502518</v>
       </c>
       <c r="K25">
-        <v>0.3956987396440468</v>
+        <v>0.3267199208724829</v>
       </c>
       <c r="L25">
-        <v>0.1225314785813865</v>
+        <v>0.1410483462218544</v>
       </c>
       <c r="M25">
-        <v>2.565982749729244</v>
+        <v>0.1053375090416377</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.119383473376935</v>
       </c>
       <c r="O25">
-        <v>0.6263756912617211</v>
+        <v>2.648003947401179</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.6464063044990951</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
